--- a/forms/contact/suspected_case-edit.xlsx
+++ b/forms/contact/suspected_case-edit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\Medic CHT Toolkit and Forms\Covid-19 TB Community Testing\config-covid-community-testing\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9601" uniqueCount="2626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9600" uniqueCount="2626">
   <si>
     <t>type</t>
   </si>
@@ -12688,10 +12688,10 @@
   <dimension ref="A1:N949"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12701,9 +12701,9 @@
     <col min="3" max="3" width="48.44140625" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="38.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
     <col min="9" max="9" width="73.6640625" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" customWidth="1"/>
     <col min="11" max="11" width="25.109375" customWidth="1"/>
@@ -14721,9 +14721,7 @@
       <c r="C85" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -52504,7 +52502,7 @@
       </c>
       <c r="C2" s="27">
         <f ca="1">NOW()</f>
-        <v>44761.413122569444</v>
+        <v>44839.700130092591</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>216</v>

--- a/forms/contact/suspected_case-edit.xlsx
+++ b/forms/contact/suspected_case-edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Communty Testing Bodaboda_CHV Test Server_Server 3\Forms Jane Nov 14 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F103AC8F-788F-4E4F-9E34-7B0BE609E5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510C3E26-12B1-4E0E-9A33-ABE81D9C5E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3261" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3262" uniqueCount="1038">
   <si>
     <t>type</t>
   </si>
@@ -8106,10 +8106,10 @@
   <dimension ref="A1:N953"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10604,7 +10604,9 @@
       <c r="B105" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C105" s="5"/>
+      <c r="C105" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D105" s="17"/>
       <c r="E105" s="17"/>
       <c r="F105" s="5" t="s">
@@ -11571,15 +11573,15 @@
     <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A38:J38 A39:F42 I39:J42 A43:J48 K37:K48 D29:N29 E32:E33 A30:N30 L34:N48 F56:K62 A1:N13 A105:N953 A76:N77 E103:E104 A101:D104 J31:N33 F31:H33 A31:D33 A56:D64 C80:C81 C93 A19:H19 J19:N19 A20:N25 L55:N68 A55:K55 F101:N104 F100:H100 J100:N100 A52:N54 A18:N18 A27:N28 A68:D75 F68:N75 A82:E82 A85:D85 A90:E91 B83:D84 B86:E87 A94:D99 F90:N99 F78:N87 A88:N89">
+  <conditionalFormatting sqref="A38:J38 A39:F42 I39:J42 A43:J48 K37:K48 D29:N29 E32:E33 A30:N30 L34:N48 F56:K62 A1:N13 A76:N77 E103:E104 A101:D104 J31:N33 F31:H33 A31:D33 A56:D64 C80:C81 C93 A19:H19 J19:N19 A20:N25 L55:N68 A55:K55 F101:N104 F100:H100 J100:N100 A52:N54 A18:N18 A27:N28 A68:D75 F68:N75 A82:E82 A85:D85 A90:E91 B83:D84 B86:E87 A94:D99 F90:N99 F78:N87 A88:N89 A105:N953">
     <cfRule type="containsText" dxfId="437" priority="311" operator="containsText" text="calculate"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:H38 A39:F42 F34:H37 C23:C24 I34:J48 A43:H48 K37:K48 L34:N48 A1:N13 A22:N22 A23:B25 A28:C28 A32:H33 A56:D59 A62:D64 A60:B61 D60:D61 F56:H62 D23:N25 A105:N953 A76:N77 E103:E104 A101:D104 J31:N33 A31:D31 F31:H31 C60 C80 A20:N20 A55:H55 A17:H17 J17:N17 F101:N104 F100:H100 J100:N100 J19:N19 A19:H19 A52:N54 A18:N18 D27:N28 A27:B28 F71:N75 A69:D75 A65:H68 F69:H70 I55:N70 A82:E82 A85:D85 A90:E91 B83:D84 A94:D99 B86:E86 B87:D87 F78:N86 F90:N99 F87 A88:F89">
+  <conditionalFormatting sqref="A38:H38 A39:F42 F34:H37 C23:C24 I34:J48 A43:H48 K37:K48 L34:N48 A1:N13 A22:N22 A23:B25 A28:C28 A32:H33 A56:D59 A62:D64 A60:B61 D60:D61 F56:H62 D23:N25 A76:N77 E103:E104 A101:D104 J31:N33 A31:D31 F31:H31 C60 C80 A20:N20 A55:H55 A17:H17 J17:N17 F101:N104 F100:H100 J100:N100 J19:N19 A19:H19 A52:N54 A18:N18 D27:N28 A27:B28 F71:N75 A69:D75 A65:H68 F69:H70 I55:N70 A82:E82 A85:D85 A90:E91 B83:D84 A94:D99 B86:E86 B87:D87 F78:N86 F90:N99 F87 A88:F89 A105:N953">
     <cfRule type="expression" dxfId="436" priority="312">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:J38 A39:F42 I39:J42 A43:J48 K37:K48 L34:N48 D29:N29 E32:E33 A30:N30 F56:J62 A1:N13 A105:N953 A76:N77 E103:E104 A101:D104 J31:N33 F31:H33 A31:D33 A56:D64 C80:C81 C93 A19:H19 J19:N19 A20:N25 K55:N68 A55:J55 F101:N104 F100:H100 J100:N100 A52:N54 A18:N18 A27:N28 A68:D75 F68:N75 A82:E82 A85:D85 A90:E91 B83:D84 B86:E87 A94:D99 F90:N99 F78:N87 A88:N89">
+  <conditionalFormatting sqref="A38:J38 A39:F42 I39:J42 A43:J48 K37:K48 L34:N48 D29:N29 E32:E33 A30:N30 F56:J62 A1:N13 A76:N77 E103:E104 A101:D104 J31:N33 F31:H33 A31:D33 A56:D64 C80:C81 C93 A19:H19 J19:N19 A20:N25 K55:N68 A55:J55 F101:N104 F100:H100 J100:N100 A52:N54 A18:N18 A27:N28 A68:D75 F68:N75 A82:E82 A85:D85 A90:E91 B83:D84 B86:E87 A94:D99 F90:N99 F78:N87 A88:N89 A105:N953">
     <cfRule type="cellIs" dxfId="435" priority="314" operator="equal">
       <formula>"note"</formula>
     </cfRule>
@@ -11589,7 +11591,7 @@
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C13 C22:C24 C31:C48 C80 C20 C52:C60 C17:C18 C62:C77 C94:C953 C82:C92">
+  <conditionalFormatting sqref="C1:C13 C22:C24 C31:C48 C80 C20 C52:C60 C17:C18 C62:C77 C82:C92 C94:C953">
     <cfRule type="expression" dxfId="433" priority="316">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
@@ -11663,7 +11665,7 @@
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38:H38 A39:F42 F34:H37 C23:C24 I34:J48 A43:H48 K37:K48 L34:N48 A1:N13 A22:N22 A23:B25 A28:C28 A32:H33 A56:D59 A62:D64 A60:B61 D60:D61 F56:H62 D23:N25 A105:N953 A76:N77 E103:E104 A101:D104 J31:N33 A31:D31 F31:H31 C60 C80 A20:N20 A55:H55 A17:H17 J17:N17 F101:N104 F100:H100 J100:N100 J19:N19 A19:H19 A52:N54 A18:N18 D27:N28 A27:B28 F71:N75 A69:D75 A65:H68 F69:H70 I55:N70 A82:E82 A85:D85 A90:E91 B83:D84 A94:D99 B86:E86 B87:D87 F78:N86 F90:N99 F87 A88:F89">
+  <conditionalFormatting sqref="A38:H38 A39:F42 F34:H37 C23:C24 I34:J48 A43:H48 K37:K48 L34:N48 A1:N13 A22:N22 A23:B25 A28:C28 A32:H33 A56:D59 A62:D64 A60:B61 D60:D61 F56:H62 D23:N25 A76:N77 E103:E104 A101:D104 J31:N33 A31:D31 F31:H31 C60 C80 A20:N20 A55:H55 A17:H17 J17:N17 F101:N104 F100:H100 J100:N100 J19:N19 A19:H19 A52:N54 A18:N18 D27:N28 A27:B28 F71:N75 A69:D75 A65:H68 F69:H70 I55:N70 A82:E82 A85:D85 A90:E91 B83:D84 A94:D99 B86:E86 B87:D87 F78:N86 F90:N99 F87 A88:F89 A105:N953">
     <cfRule type="expression" dxfId="417" priority="333">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
@@ -13617,7 +13619,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D90:D110 D2:D89" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D110" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -27462,7 +27464,7 @@
       </c>
       <c r="C2" s="24">
         <f ca="1">NOW()</f>
-        <v>44879.022238541664</v>
+        <v>44879.027136805555</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>215</v>

--- a/forms/contact/suspected_case-edit.xlsx
+++ b/forms/contact/suspected_case-edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Bodaboda_CHV Test Server_Server 3\community-testing-config-test\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AFC306-1F3E-45D8-886C-2428B8699A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897FB88C-1B63-4373-B05C-A24C181170A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="1043">
   <si>
     <t>type</t>
   </si>
@@ -3152,6 +3152,18 @@
   </si>
   <si>
     <t>Bofu</t>
+  </si>
+  <si>
+    <t>Port Reitz</t>
+  </si>
+  <si>
+    <t>Vikwatani CGTRH</t>
+  </si>
+  <si>
+    <t>Mlaleo Health Centre (Magogoni)</t>
+  </si>
+  <si>
+    <t>Mlaleo Health Centre (Mjambere)</t>
   </si>
   <si>
     <t>contact:suspected_case:edit</t>
@@ -3365,7 +3377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3476,7 +3488,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7571,11 +7582,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N951"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C91" sqref="C91"/>
+      <selection pane="bottomRight" activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12767,11 +12778,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y965"/>
+  <dimension ref="A1:Y967"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
+      <pane ySplit="1" topLeftCell="A734" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B768" sqref="B768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -14005,7 +14016,7 @@
       <c r="B40" s="21" t="s">
         <v>1029</v>
       </c>
-      <c r="C40" s="52" t="s">
+      <c r="C40" s="12" t="s">
         <v>1030</v>
       </c>
       <c r="D40" s="20"/>
@@ -14165,7 +14176,7 @@
       <c r="B45" s="21" t="s">
         <v>1023</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="12" t="s">
         <v>1022</v>
       </c>
       <c r="D45" s="42"/>
@@ -23499,7 +23510,7 @@
         <v>912</v>
       </c>
       <c r="F684" s="49" t="s">
-        <v>645</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.25">
@@ -23513,7 +23524,7 @@
         <v>913</v>
       </c>
       <c r="F685" s="49" t="s">
-        <v>645</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
@@ -23527,7 +23538,7 @@
         <v>914</v>
       </c>
       <c r="F686" s="49" t="s">
-        <v>645</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="687" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -23573,143 +23584,143 @@
       <c r="C691" s="50"/>
       <c r="F691" s="50"/>
     </row>
-    <row r="692" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B692" s="50"/>
-      <c r="C692" s="50"/>
-      <c r="F692" s="50"/>
-    </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A693" t="s">
-        <v>308</v>
-      </c>
-      <c r="B693" s="49" t="s">
-        <v>917</v>
-      </c>
-      <c r="C693" s="49" t="s">
-        <v>917</v>
-      </c>
-      <c r="F693" s="49" t="s">
-        <v>647</v>
-      </c>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>308</v>
+      </c>
+      <c r="B692" s="49" t="s">
+        <v>916</v>
+      </c>
+      <c r="C692" s="49" t="s">
+        <v>916</v>
+      </c>
+      <c r="F692" s="49" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B693" s="50"/>
+      <c r="C693" s="50"/>
+      <c r="F693" s="50"/>
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>308</v>
       </c>
       <c r="B694" s="49" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C694" s="49" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F694" s="49" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="695" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B695" s="50"/>
-      <c r="C695" s="50"/>
-      <c r="F695" s="50"/>
-    </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A696" t="s">
-        <v>308</v>
-      </c>
-      <c r="B696" s="49" t="s">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>308</v>
+      </c>
+      <c r="B695" s="49" t="s">
+        <v>918</v>
+      </c>
+      <c r="C695" s="49" t="s">
+        <v>918</v>
+      </c>
+      <c r="F695" s="49" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B696" s="50"/>
+      <c r="C696" s="50"/>
+      <c r="F696" s="50"/>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>308</v>
+      </c>
+      <c r="B697" s="49" t="s">
         <v>919</v>
       </c>
-      <c r="C696" s="49" t="s">
+      <c r="C697" s="49" t="s">
         <v>919</v>
       </c>
-      <c r="F696" s="49" t="s">
+      <c r="F697" s="49" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="697" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B697" s="50"/>
-      <c r="C697" s="50"/>
-      <c r="F697" s="50"/>
-    </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A698" t="s">
-        <v>308</v>
-      </c>
-      <c r="B698" s="49" t="s">
-        <v>920</v>
-      </c>
-      <c r="C698" s="49" t="s">
-        <v>920</v>
-      </c>
-      <c r="F698" s="49" t="s">
-        <v>649</v>
-      </c>
+    <row r="698" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B698" s="50"/>
+      <c r="C698" s="50"/>
+      <c r="F698" s="50"/>
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>308</v>
       </c>
       <c r="B699" s="49" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C699" s="49" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F699" s="49" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="700" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B700" s="50"/>
-      <c r="C700" s="50"/>
-      <c r="F700" s="50"/>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>308</v>
+      </c>
+      <c r="B700" s="49" t="s">
+        <v>921</v>
+      </c>
+      <c r="C700" s="49" t="s">
+        <v>921</v>
+      </c>
+      <c r="F700" s="49" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="701" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B701" s="50"/>
       <c r="C701" s="50"/>
       <c r="F701" s="50"/>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A702" t="s">
-        <v>308</v>
-      </c>
-      <c r="B702" s="49" t="s">
+    <row r="702" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B702" s="50"/>
+      <c r="C702" s="50"/>
+      <c r="F702" s="50"/>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>308</v>
+      </c>
+      <c r="B703" s="49" t="s">
         <v>922</v>
       </c>
-      <c r="C702" s="49" t="s">
+      <c r="C703" s="49" t="s">
         <v>922</v>
       </c>
-      <c r="F702" s="49" t="s">
+      <c r="F703" s="49" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="703" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B703" s="50"/>
-      <c r="C703" s="50"/>
-      <c r="F703" s="50"/>
-    </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A704" t="s">
-        <v>308</v>
-      </c>
-      <c r="B704" s="49" t="s">
-        <v>923</v>
-      </c>
-      <c r="C704" s="49" t="s">
-        <v>923</v>
-      </c>
-      <c r="F704" s="49" t="s">
-        <v>651</v>
-      </c>
+    <row r="704" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B704" s="50"/>
+      <c r="C704" s="50"/>
+      <c r="F704" s="50"/>
     </row>
     <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>308</v>
       </c>
       <c r="B705" s="49" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C705" s="49" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F705" s="49" t="s">
         <v>651</v>
@@ -23720,43 +23731,43 @@
         <v>308</v>
       </c>
       <c r="B706" s="49" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C706" s="49" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F706" s="49" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="707" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B707" s="50"/>
-      <c r="C707" s="50"/>
-      <c r="F707" s="50"/>
-    </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A708" t="s">
-        <v>308</v>
-      </c>
-      <c r="B708" s="49" t="s">
-        <v>926</v>
-      </c>
-      <c r="C708" s="49" t="s">
-        <v>926</v>
-      </c>
-      <c r="F708" s="49" t="s">
-        <v>652</v>
-      </c>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>308</v>
+      </c>
+      <c r="B707" s="49" t="s">
+        <v>925</v>
+      </c>
+      <c r="C707" s="49" t="s">
+        <v>925</v>
+      </c>
+      <c r="F707" s="49" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B708" s="50"/>
+      <c r="C708" s="50"/>
+      <c r="F708" s="50"/>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>308</v>
       </c>
       <c r="B709" s="49" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C709" s="49" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F709" s="49" t="s">
         <v>652</v>
@@ -23767,10 +23778,10 @@
         <v>308</v>
       </c>
       <c r="B710" s="49" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C710" s="49" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F710" s="49" t="s">
         <v>652</v>
@@ -23781,19 +23792,28 @@
         <v>308</v>
       </c>
       <c r="B711" s="49" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C711" s="49" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F711" s="49" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="712" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B712" s="50"/>
-      <c r="C712" s="50"/>
-      <c r="F712" s="50"/>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>308</v>
+      </c>
+      <c r="B712" s="49" t="s">
+        <v>929</v>
+      </c>
+      <c r="C712" s="49" t="s">
+        <v>929</v>
+      </c>
+      <c r="F712" s="49" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="713" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B713" s="50"/>
@@ -23805,38 +23825,29 @@
         <v>308</v>
       </c>
       <c r="B714" s="49" t="s">
-        <v>930</v>
+        <v>1039</v>
       </c>
       <c r="C714" s="49" t="s">
-        <v>930</v>
+        <v>1039</v>
       </c>
       <c r="F714" s="49" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A715" t="s">
-        <v>308</v>
-      </c>
-      <c r="B715" s="49" t="s">
-        <v>931</v>
-      </c>
-      <c r="C715" s="49" t="s">
-        <v>931</v>
-      </c>
-      <c r="F715" s="49" t="s">
-        <v>653</v>
-      </c>
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B715" s="50"/>
+      <c r="C715" s="50"/>
+      <c r="F715" s="50"/>
     </row>
     <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>308</v>
       </c>
       <c r="B716" s="49" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C716" s="49" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F716" s="49" t="s">
         <v>653</v>
@@ -23847,32 +23858,41 @@
         <v>308</v>
       </c>
       <c r="B717" s="49" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C717" s="49" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F717" s="49" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="718" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B718" s="50"/>
-      <c r="C718" s="50"/>
-      <c r="F718" s="50"/>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>308</v>
+      </c>
+      <c r="B718" s="49" t="s">
+        <v>932</v>
+      </c>
+      <c r="C718" s="49" t="s">
+        <v>932</v>
+      </c>
+      <c r="F718" s="49" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>308</v>
       </c>
       <c r="B719" s="49" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C719" s="49" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F719" s="49" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="720" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -23885,123 +23905,114 @@
         <v>308</v>
       </c>
       <c r="B721" s="49" t="s">
+        <v>934</v>
+      </c>
+      <c r="C721" s="49" t="s">
+        <v>934</v>
+      </c>
+      <c r="F721" s="49" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B722" s="50"/>
+      <c r="C722" s="50"/>
+      <c r="F722" s="50"/>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>308</v>
+      </c>
+      <c r="B723" s="49" t="s">
         <v>935</v>
       </c>
-      <c r="C721" s="49" t="s">
+      <c r="C723" s="49" t="s">
         <v>935</v>
       </c>
-      <c r="F721" s="49" t="s">
+      <c r="F723" s="49" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A722" t="s">
-        <v>308</v>
-      </c>
-      <c r="B722" s="49" t="s">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>308</v>
+      </c>
+      <c r="B724" s="49" t="s">
         <v>936</v>
       </c>
-      <c r="C722" s="49" t="s">
+      <c r="C724" s="49" t="s">
         <v>936</v>
       </c>
-      <c r="F722" s="49" t="s">
+      <c r="F724" s="49" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="723" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B723" s="50"/>
-      <c r="C723" s="50"/>
-      <c r="F723" s="50"/>
-    </row>
-    <row r="724" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B724" s="50"/>
-      <c r="C724" s="50"/>
-      <c r="F724" s="50"/>
-    </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A725" t="s">
-        <v>308</v>
-      </c>
-      <c r="B725" s="49" t="s">
-        <v>937</v>
-      </c>
-      <c r="C725" s="49" t="s">
-        <v>937</v>
-      </c>
-      <c r="F725" s="49" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A726" t="s">
-        <v>308</v>
-      </c>
-      <c r="B726" s="49" t="s">
-        <v>938</v>
-      </c>
-      <c r="C726" s="49" t="s">
-        <v>938</v>
-      </c>
-      <c r="F726" s="49" t="s">
-        <v>656</v>
-      </c>
+    <row r="725" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B725" s="50"/>
+      <c r="C725" s="50"/>
+      <c r="F725" s="50"/>
+    </row>
+    <row r="726" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B726" s="50"/>
+      <c r="C726" s="50"/>
+      <c r="F726" s="50"/>
     </row>
     <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>308</v>
       </c>
       <c r="B727" s="49" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C727" s="49" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F727" s="49" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="728" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B728" s="50"/>
-      <c r="C728" s="50"/>
-      <c r="F728" s="50"/>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>308</v>
+      </c>
+      <c r="B728" s="49" t="s">
+        <v>938</v>
+      </c>
+      <c r="C728" s="49" t="s">
+        <v>938</v>
+      </c>
+      <c r="F728" s="49" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>308</v>
       </c>
       <c r="B729" s="49" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C729" s="49" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F729" s="49" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A730" t="s">
-        <v>308</v>
-      </c>
-      <c r="B730" s="49" t="s">
-        <v>941</v>
-      </c>
-      <c r="C730" s="49" t="s">
-        <v>941</v>
-      </c>
-      <c r="F730" s="49" t="s">
-        <v>657</v>
-      </c>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B730" s="50"/>
+      <c r="C730" s="50"/>
+      <c r="F730" s="50"/>
     </row>
     <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>308</v>
       </c>
       <c r="B731" s="49" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C731" s="49" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F731" s="49" t="s">
         <v>657</v>
@@ -24012,57 +24023,57 @@
         <v>308</v>
       </c>
       <c r="B732" s="49" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C732" s="49" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F732" s="49" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="733" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B733" s="50"/>
-      <c r="C733" s="50"/>
-      <c r="F733" s="50"/>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>308</v>
+      </c>
+      <c r="B733" s="49" t="s">
+        <v>942</v>
+      </c>
+      <c r="C733" s="49" t="s">
+        <v>942</v>
+      </c>
+      <c r="F733" s="49" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>308</v>
       </c>
       <c r="B734" s="49" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C734" s="49" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F734" s="49" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A735" t="s">
-        <v>308</v>
-      </c>
-      <c r="B735" s="49" t="s">
-        <v>945</v>
-      </c>
-      <c r="C735" s="49" t="s">
-        <v>945</v>
-      </c>
-      <c r="F735" s="49" t="s">
-        <v>658</v>
-      </c>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B735" s="50"/>
+      <c r="C735" s="50"/>
+      <c r="F735" s="50"/>
     </row>
     <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>308</v>
       </c>
       <c r="B736" s="49" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C736" s="49" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F736" s="49" t="s">
         <v>658</v>
@@ -24073,10 +24084,10 @@
         <v>308</v>
       </c>
       <c r="B737" s="49" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C737" s="49" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F737" s="49" t="s">
         <v>658</v>
@@ -24087,104 +24098,104 @@
         <v>308</v>
       </c>
       <c r="B738" s="49" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C738" s="49" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F738" s="49" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="739" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B739" s="50"/>
-      <c r="C739" s="50"/>
-      <c r="F739" s="50"/>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>308</v>
+      </c>
+      <c r="B739" s="49" t="s">
+        <v>947</v>
+      </c>
+      <c r="C739" s="49" t="s">
+        <v>947</v>
+      </c>
+      <c r="F739" s="49" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>308</v>
       </c>
       <c r="B740" s="49" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C740" s="49" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F740" s="49" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A741" t="s">
-        <v>308</v>
-      </c>
-      <c r="B741" s="49" t="s">
-        <v>950</v>
-      </c>
-      <c r="C741" s="49" t="s">
-        <v>950</v>
-      </c>
-      <c r="F741" s="49" t="s">
-        <v>659</v>
-      </c>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B741" s="50"/>
+      <c r="C741" s="50"/>
+      <c r="F741" s="50"/>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>308</v>
       </c>
       <c r="B742" s="49" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C742" s="49" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F742" s="49" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="743" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B743" s="50"/>
-      <c r="C743" s="50"/>
-      <c r="F743" s="50"/>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>308</v>
+      </c>
+      <c r="B743" s="49" t="s">
+        <v>950</v>
+      </c>
+      <c r="C743" s="49" t="s">
+        <v>950</v>
+      </c>
+      <c r="F743" s="49" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>308</v>
       </c>
       <c r="B744" s="49" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C744" s="49" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="F744" s="49" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A745" t="s">
-        <v>308</v>
-      </c>
-      <c r="B745" s="49" t="s">
-        <v>953</v>
-      </c>
-      <c r="C745" s="49" t="s">
-        <v>953</v>
-      </c>
-      <c r="F745" s="49" t="s">
-        <v>660</v>
-      </c>
+        <v>659</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B745" s="50"/>
+      <c r="C745" s="50"/>
+      <c r="F745" s="50"/>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>308</v>
       </c>
       <c r="B746" s="49" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C746" s="49" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F746" s="49" t="s">
         <v>660</v>
@@ -24195,89 +24206,107 @@
         <v>308</v>
       </c>
       <c r="B747" s="49" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C747" s="49" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F747" s="49" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="748" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B748" s="50"/>
-      <c r="C748" s="50"/>
-      <c r="F748" s="50"/>
-    </row>
-    <row r="749" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B749" s="50"/>
-      <c r="C749" s="50"/>
-      <c r="F749" s="50"/>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>308</v>
+      </c>
+      <c r="B748" s="49" t="s">
+        <v>954</v>
+      </c>
+      <c r="C748" s="49" t="s">
+        <v>954</v>
+      </c>
+      <c r="F748" s="49" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>308</v>
+      </c>
+      <c r="B749" s="49" t="s">
+        <v>955</v>
+      </c>
+      <c r="C749" s="49" t="s">
+        <v>955</v>
+      </c>
+      <c r="F749" s="49" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A750" t="s">
-        <v>308</v>
-      </c>
-      <c r="B750" s="49" t="s">
-        <v>956</v>
-      </c>
-      <c r="C750" s="49" t="s">
-        <v>956</v>
-      </c>
-      <c r="F750" s="49" t="s">
-        <v>661</v>
-      </c>
+      <c r="B750" s="49"/>
+      <c r="C750" s="49"/>
+      <c r="F750" s="49"/>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>308</v>
       </c>
       <c r="B751" s="49" t="s">
-        <v>957</v>
+        <v>1040</v>
       </c>
       <c r="C751" s="49" t="s">
-        <v>957</v>
+        <v>1040</v>
       </c>
       <c r="F751" s="49" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>308</v>
+      </c>
+      <c r="B752" s="49" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C752" s="49" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F752" s="49" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B753" s="50"/>
+      <c r="C753" s="50"/>
+      <c r="F753" s="49"/>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>308</v>
+      </c>
+      <c r="B754" s="49" t="s">
+        <v>956</v>
+      </c>
+      <c r="C754" s="49" t="s">
+        <v>956</v>
+      </c>
+      <c r="F754" s="49" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="752" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B752" s="50"/>
-      <c r="C752" s="50"/>
-      <c r="F752" s="50"/>
-    </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A753" t="s">
-        <v>308</v>
-      </c>
-      <c r="B753" s="49" t="s">
-        <v>958</v>
-      </c>
-      <c r="C753" s="49" t="s">
-        <v>958</v>
-      </c>
-      <c r="F753" s="49" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="754" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B754" s="50"/>
-      <c r="C754" s="50"/>
-      <c r="F754" s="50"/>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>308</v>
       </c>
       <c r="B755" s="49" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C755" s="49" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F755" s="49" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="756" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24290,119 +24319,119 @@
         <v>308</v>
       </c>
       <c r="B757" s="49" t="s">
+        <v>958</v>
+      </c>
+      <c r="C757" s="49" t="s">
+        <v>958</v>
+      </c>
+      <c r="F757" s="49" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B758" s="50"/>
+      <c r="C758" s="50"/>
+      <c r="F758" s="50"/>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>308</v>
+      </c>
+      <c r="B759" s="49" t="s">
+        <v>959</v>
+      </c>
+      <c r="C759" s="49" t="s">
+        <v>959</v>
+      </c>
+      <c r="F759" s="49" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B760" s="50"/>
+      <c r="C760" s="50"/>
+      <c r="F760" s="50"/>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>308</v>
+      </c>
+      <c r="B761" s="49" t="s">
         <v>960</v>
       </c>
-      <c r="C757" s="49" t="s">
+      <c r="C761" s="49" t="s">
         <v>960</v>
       </c>
-      <c r="F757" s="49" t="s">
+      <c r="F761" s="49" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A758" t="s">
-        <v>308</v>
-      </c>
-      <c r="B758" s="49" t="s">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>308</v>
+      </c>
+      <c r="B762" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="C758" s="49" t="s">
+      <c r="C762" s="49" t="s">
         <v>961</v>
       </c>
-      <c r="F758" s="49" t="s">
+      <c r="F762" s="49" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="759" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B759" s="50"/>
-      <c r="C759" s="50"/>
-      <c r="F759" s="50"/>
-    </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A760" t="s">
-        <v>308</v>
-      </c>
-      <c r="B760" s="49" t="s">
-        <v>962</v>
-      </c>
-      <c r="C760" s="49" t="s">
-        <v>962</v>
-      </c>
-      <c r="F760" s="49" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B761" s="49"/>
-      <c r="C761" s="49"/>
-      <c r="F761" s="49"/>
-    </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B762" s="49"/>
-      <c r="C762" s="49"/>
-      <c r="F762" s="49"/>
-    </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B763" s="49"/>
-      <c r="C763" s="49"/>
-      <c r="F763" s="49"/>
+    <row r="763" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B763" s="50"/>
+      <c r="C763" s="50"/>
+      <c r="F763" s="50"/>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>308</v>
       </c>
       <c r="B764" s="49" t="s">
-        <v>427</v>
+        <v>962</v>
       </c>
       <c r="C764" s="49" t="s">
-        <v>427</v>
+        <v>962</v>
       </c>
       <c r="F764" s="49" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="765" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B765" s="50"/>
-      <c r="C765" s="50"/>
-      <c r="F765" s="50"/>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B765" s="49"/>
+      <c r="C765" s="49"/>
+      <c r="F765" s="49"/>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>308</v>
       </c>
       <c r="B766" s="49" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C766" s="49" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="F766" s="49" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A767" t="s">
-        <v>308</v>
-      </c>
-      <c r="B767" s="49" t="s">
-        <v>963</v>
-      </c>
-      <c r="C767" s="49" t="s">
-        <v>963</v>
-      </c>
-      <c r="F767" s="49" t="s">
-        <v>667</v>
-      </c>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B767" s="50"/>
+      <c r="C767" s="50"/>
+      <c r="F767" s="50"/>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>308</v>
       </c>
       <c r="B768" s="49" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C768" s="49" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F768" s="49" t="s">
         <v>667</v>
@@ -24413,10 +24442,10 @@
         <v>308</v>
       </c>
       <c r="B769" s="49" t="s">
-        <v>424</v>
+        <v>963</v>
       </c>
       <c r="C769" s="49" t="s">
-        <v>424</v>
+        <v>963</v>
       </c>
       <c r="F769" s="49" t="s">
         <v>667</v>
@@ -24427,10 +24456,10 @@
         <v>308</v>
       </c>
       <c r="B770" s="49" t="s">
-        <v>470</v>
+        <v>416</v>
       </c>
       <c r="C770" s="49" t="s">
-        <v>470</v>
+        <v>416</v>
       </c>
       <c r="F770" s="49" t="s">
         <v>667</v>
@@ -24441,10 +24470,10 @@
         <v>308</v>
       </c>
       <c r="B771" s="49" t="s">
-        <v>964</v>
+        <v>424</v>
       </c>
       <c r="C771" s="49" t="s">
-        <v>964</v>
+        <v>424</v>
       </c>
       <c r="F771" s="49" t="s">
         <v>667</v>
@@ -24455,38 +24484,47 @@
         <v>308</v>
       </c>
       <c r="B772" s="49" t="s">
-        <v>965</v>
+        <v>470</v>
       </c>
       <c r="C772" s="49" t="s">
-        <v>965</v>
+        <v>470</v>
       </c>
       <c r="F772" s="49" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="773" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B773" s="50"/>
-      <c r="C773" s="50"/>
-      <c r="F773" s="50"/>
-    </row>
-    <row r="774" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B774" s="50"/>
-      <c r="C774" s="50"/>
-      <c r="F774" s="50"/>
-    </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A775" t="s">
-        <v>308</v>
-      </c>
-      <c r="B775" s="49" t="s">
-        <v>463</v>
-      </c>
-      <c r="C775" s="49" t="s">
-        <v>463</v>
-      </c>
-      <c r="F775" s="49" t="s">
-        <v>668</v>
-      </c>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>308</v>
+      </c>
+      <c r="B773" s="49" t="s">
+        <v>964</v>
+      </c>
+      <c r="C773" s="49" t="s">
+        <v>964</v>
+      </c>
+      <c r="F773" s="49" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>308</v>
+      </c>
+      <c r="B774" s="49" t="s">
+        <v>965</v>
+      </c>
+      <c r="C774" s="49" t="s">
+        <v>965</v>
+      </c>
+      <c r="F774" s="49" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B775" s="50"/>
+      <c r="C775" s="50"/>
+      <c r="F775" s="50"/>
     </row>
     <row r="776" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B776" s="50"/>
@@ -24498,60 +24536,60 @@
         <v>308</v>
       </c>
       <c r="B777" s="49" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="C777" s="49" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="F777" s="49" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A778" t="s">
-        <v>308</v>
-      </c>
-      <c r="B778" s="49" t="s">
-        <v>442</v>
-      </c>
-      <c r="C778" s="49" t="s">
-        <v>442</v>
-      </c>
-      <c r="F778" s="49" t="s">
-        <v>669</v>
-      </c>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B778" s="50"/>
+      <c r="C778" s="50"/>
+      <c r="F778" s="50"/>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>308</v>
       </c>
       <c r="B779" s="49" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="C779" s="49" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="F779" s="49" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="780" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B780" s="50"/>
-      <c r="C780" s="50"/>
-      <c r="F780" s="50"/>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>308</v>
+      </c>
+      <c r="B780" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="C780" s="49" t="s">
+        <v>442</v>
+      </c>
+      <c r="F780" s="49" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>308</v>
       </c>
       <c r="B781" s="49" t="s">
-        <v>469</v>
+        <v>414</v>
       </c>
       <c r="C781" s="49" t="s">
-        <v>469</v>
+        <v>414</v>
       </c>
       <c r="F781" s="49" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="782" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24559,86 +24597,77 @@
       <c r="C782" s="50"/>
       <c r="F782" s="50"/>
     </row>
-    <row r="783" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B783" s="50"/>
-      <c r="C783" s="50"/>
-      <c r="F783" s="50"/>
-    </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A784" t="s">
-        <v>308</v>
-      </c>
-      <c r="B784" s="49" t="s">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>308</v>
+      </c>
+      <c r="B783" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="C783" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="F783" s="49" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B784" s="50"/>
+      <c r="C784" s="50"/>
+      <c r="F784" s="50"/>
+    </row>
+    <row r="785" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B785" s="50"/>
+      <c r="C785" s="50"/>
+      <c r="F785" s="50"/>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>308</v>
+      </c>
+      <c r="B786" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="C784" s="49" t="s">
+      <c r="C786" s="49" t="s">
         <v>435</v>
       </c>
-      <c r="F784" s="49" t="s">
+      <c r="F786" s="49" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A785" t="s">
-        <v>308</v>
-      </c>
-      <c r="B785" s="49" t="s">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>308</v>
+      </c>
+      <c r="B787" s="49" t="s">
         <v>966</v>
       </c>
-      <c r="C785" s="49" t="s">
+      <c r="C787" s="49" t="s">
         <v>966</v>
       </c>
-      <c r="F785" s="49" t="s">
+      <c r="F787" s="49" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="786" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B786" s="50"/>
-      <c r="C786" s="50"/>
-      <c r="F786" s="50"/>
-    </row>
-    <row r="787" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B787" s="50"/>
-      <c r="C787" s="50"/>
-      <c r="F787" s="50"/>
-    </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A788" t="s">
-        <v>308</v>
-      </c>
-      <c r="B788" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="C788" s="49" t="s">
-        <v>454</v>
-      </c>
-      <c r="F788" s="49" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A789" t="s">
-        <v>308</v>
-      </c>
-      <c r="B789" s="49" t="s">
-        <v>443</v>
-      </c>
-      <c r="C789" s="49" t="s">
-        <v>443</v>
-      </c>
-      <c r="F789" s="49" t="s">
-        <v>672</v>
-      </c>
+    <row r="788" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B788" s="50"/>
+      <c r="C788" s="50"/>
+      <c r="F788" s="50"/>
+    </row>
+    <row r="789" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B789" s="50"/>
+      <c r="C789" s="50"/>
+      <c r="F789" s="50"/>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>308</v>
       </c>
       <c r="B790" s="49" t="s">
-        <v>967</v>
+        <v>454</v>
       </c>
       <c r="C790" s="49" t="s">
-        <v>967</v>
+        <v>454</v>
       </c>
       <c r="F790" s="49" t="s">
         <v>672</v>
@@ -24649,10 +24678,10 @@
         <v>308</v>
       </c>
       <c r="B791" s="49" t="s">
-        <v>968</v>
+        <v>443</v>
       </c>
       <c r="C791" s="49" t="s">
-        <v>968</v>
+        <v>443</v>
       </c>
       <c r="F791" s="49" t="s">
         <v>672</v>
@@ -24663,10 +24692,10 @@
         <v>308</v>
       </c>
       <c r="B792" s="49" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C792" s="49" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F792" s="49" t="s">
         <v>672</v>
@@ -24677,10 +24706,10 @@
         <v>308</v>
       </c>
       <c r="B793" s="49" t="s">
-        <v>402</v>
+        <v>968</v>
       </c>
       <c r="C793" s="49" t="s">
-        <v>402</v>
+        <v>968</v>
       </c>
       <c r="F793" s="49" t="s">
         <v>672</v>
@@ -24691,117 +24720,126 @@
         <v>308</v>
       </c>
       <c r="B794" s="49" t="s">
-        <v>409</v>
+        <v>969</v>
       </c>
       <c r="C794" s="49" t="s">
-        <v>409</v>
+        <v>969</v>
       </c>
       <c r="F794" s="49" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="795" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B795" s="50"/>
-      <c r="C795" s="50"/>
-      <c r="F795" s="50"/>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>308</v>
+      </c>
+      <c r="B795" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="C795" s="49" t="s">
+        <v>402</v>
+      </c>
+      <c r="F795" s="49" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>308</v>
       </c>
       <c r="B796" s="49" t="s">
-        <v>970</v>
+        <v>409</v>
       </c>
       <c r="C796" s="49" t="s">
-        <v>970</v>
+        <v>409</v>
       </c>
       <c r="F796" s="49" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A797" t="s">
-        <v>308</v>
-      </c>
-      <c r="B797" s="49" t="s">
-        <v>971</v>
-      </c>
-      <c r="C797" s="49" t="s">
-        <v>971</v>
-      </c>
-      <c r="F797" s="49" t="s">
-        <v>673</v>
-      </c>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B797" s="50"/>
+      <c r="C797" s="50"/>
+      <c r="F797" s="50"/>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>308</v>
       </c>
       <c r="B798" s="49" t="s">
-        <v>400</v>
+        <v>970</v>
       </c>
       <c r="C798" s="49" t="s">
-        <v>400</v>
+        <v>970</v>
       </c>
       <c r="F798" s="49" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="799" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B799" s="50"/>
-      <c r="C799" s="50"/>
-      <c r="F799" s="50"/>
-    </row>
-    <row r="800" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B800" s="50"/>
-      <c r="C800" s="50"/>
-      <c r="F800" s="50"/>
-    </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A801" t="s">
-        <v>308</v>
-      </c>
-      <c r="B801" s="49" t="s">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>308</v>
+      </c>
+      <c r="B799" s="49" t="s">
+        <v>971</v>
+      </c>
+      <c r="C799" s="49" t="s">
+        <v>971</v>
+      </c>
+      <c r="F799" s="49" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>308</v>
+      </c>
+      <c r="B800" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="C800" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="F800" s="49" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B801" s="50"/>
+      <c r="C801" s="50"/>
+      <c r="F801" s="50"/>
+    </row>
+    <row r="802" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B802" s="50"/>
+      <c r="C802" s="50"/>
+      <c r="F802" s="50"/>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>308</v>
+      </c>
+      <c r="B803" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="C801" s="49" t="s">
+      <c r="C803" s="49" t="s">
         <v>451</v>
       </c>
-      <c r="F801" s="49" t="s">
+      <c r="F803" s="49" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A802" t="s">
-        <v>308</v>
-      </c>
-      <c r="B802" s="49" t="s">
-        <v>972</v>
-      </c>
-      <c r="C802" s="49" t="s">
-        <v>972</v>
-      </c>
-      <c r="F802" s="49" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="803" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B803" s="50"/>
-      <c r="C803" s="50"/>
-      <c r="F803" s="50"/>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>308</v>
       </c>
       <c r="B804" s="49" t="s">
-        <v>413</v>
+        <v>972</v>
       </c>
       <c r="C804" s="49" t="s">
-        <v>413</v>
+        <v>972</v>
       </c>
       <c r="F804" s="49" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="805" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24814,13 +24852,13 @@
         <v>308</v>
       </c>
       <c r="B806" s="49" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C806" s="49" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F806" s="49" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="807" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24828,24 +24866,24 @@
       <c r="C807" s="50"/>
       <c r="F807" s="50"/>
     </row>
-    <row r="808" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B808" s="50"/>
-      <c r="C808" s="50"/>
-      <c r="F808" s="50"/>
-    </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A809" t="s">
-        <v>308</v>
-      </c>
-      <c r="B809" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="C809" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="F809" s="49" t="s">
-        <v>677</v>
-      </c>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>308</v>
+      </c>
+      <c r="B808" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="C808" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="F808" s="49" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B809" s="50"/>
+      <c r="C809" s="50"/>
+      <c r="F809" s="50"/>
     </row>
     <row r="810" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B810" s="50"/>
@@ -24857,13 +24895,13 @@
         <v>308</v>
       </c>
       <c r="B811" s="49" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="C811" s="49" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="F811" s="49" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="812" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24871,24 +24909,24 @@
       <c r="C812" s="50"/>
       <c r="F812" s="50"/>
     </row>
-    <row r="813" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B813" s="50"/>
-      <c r="C813" s="50"/>
-      <c r="F813" s="50"/>
-    </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A814" t="s">
-        <v>308</v>
-      </c>
-      <c r="B814" s="49" t="s">
-        <v>420</v>
-      </c>
-      <c r="C814" s="49" t="s">
-        <v>420</v>
-      </c>
-      <c r="F814" s="49" t="s">
-        <v>679</v>
-      </c>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>308</v>
+      </c>
+      <c r="B813" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="C813" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="F813" s="49" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B814" s="50"/>
+      <c r="C814" s="50"/>
+      <c r="F814" s="50"/>
     </row>
     <row r="815" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B815" s="50"/>
@@ -24900,13 +24938,13 @@
         <v>308</v>
       </c>
       <c r="B816" s="49" t="s">
-        <v>973</v>
+        <v>420</v>
       </c>
       <c r="C816" s="49" t="s">
-        <v>973</v>
+        <v>420</v>
       </c>
       <c r="F816" s="49" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="817" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24919,13 +24957,13 @@
         <v>308</v>
       </c>
       <c r="B818" s="49" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C818" s="49" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F818" s="49" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="819" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -24933,24 +24971,24 @@
       <c r="C819" s="50"/>
       <c r="F819" s="50"/>
     </row>
-    <row r="820" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B820" s="50"/>
-      <c r="C820" s="50"/>
-      <c r="F820" s="50"/>
-    </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A821" t="s">
-        <v>308</v>
-      </c>
-      <c r="B821" s="49" t="s">
-        <v>428</v>
-      </c>
-      <c r="C821" s="49" t="s">
-        <v>428</v>
-      </c>
-      <c r="F821" s="49" t="s">
-        <v>682</v>
-      </c>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>308</v>
+      </c>
+      <c r="B820" s="49" t="s">
+        <v>974</v>
+      </c>
+      <c r="C820" s="49" t="s">
+        <v>974</v>
+      </c>
+      <c r="F820" s="49" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B821" s="50"/>
+      <c r="C821" s="50"/>
+      <c r="F821" s="50"/>
     </row>
     <row r="822" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B822" s="50"/>
@@ -24962,38 +25000,29 @@
         <v>308</v>
       </c>
       <c r="B823" s="49" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="C823" s="49" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="F823" s="49" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A824" t="s">
-        <v>308</v>
-      </c>
-      <c r="B824" s="49" t="s">
-        <v>472</v>
-      </c>
-      <c r="C824" s="49" t="s">
-        <v>472</v>
-      </c>
-      <c r="F824" s="49" t="s">
-        <v>683</v>
-      </c>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B824" s="50"/>
+      <c r="C824" s="50"/>
+      <c r="F824" s="50"/>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>308</v>
       </c>
       <c r="B825" s="49" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="C825" s="49" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="F825" s="49" t="s">
         <v>683</v>
@@ -25004,70 +25033,79 @@
         <v>308</v>
       </c>
       <c r="B826" s="49" t="s">
-        <v>975</v>
+        <v>472</v>
       </c>
       <c r="C826" s="49" t="s">
-        <v>975</v>
+        <v>472</v>
       </c>
       <c r="F826" s="49" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="827" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B827" s="50"/>
-      <c r="C827" s="50"/>
-      <c r="F827" s="50"/>
-    </row>
-    <row r="828" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B828" s="50"/>
-      <c r="C828" s="50"/>
-      <c r="F828" s="50"/>
-    </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A829" t="s">
-        <v>308</v>
-      </c>
-      <c r="B829" s="49" t="s">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>308</v>
+      </c>
+      <c r="B827" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="C827" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="F827" s="49" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>308</v>
+      </c>
+      <c r="B828" s="49" t="s">
+        <v>975</v>
+      </c>
+      <c r="C828" s="49" t="s">
+        <v>975</v>
+      </c>
+      <c r="F828" s="49" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B829" s="50"/>
+      <c r="C829" s="50"/>
+      <c r="F829" s="50"/>
+    </row>
+    <row r="830" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B830" s="50"/>
+      <c r="C830" s="50"/>
+      <c r="F830" s="50"/>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>308</v>
+      </c>
+      <c r="B831" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="C829" s="49" t="s">
+      <c r="C831" s="49" t="s">
         <v>476</v>
       </c>
-      <c r="F829" s="49" t="s">
+      <c r="F831" s="49" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A830" t="s">
-        <v>308</v>
-      </c>
-      <c r="B830" s="49" t="s">
-        <v>976</v>
-      </c>
-      <c r="C830" s="49" t="s">
-        <v>976</v>
-      </c>
-      <c r="F830" s="49" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="831" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B831" s="50"/>
-      <c r="C831" s="50"/>
-      <c r="F831" s="50"/>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>308</v>
       </c>
       <c r="B832" s="49" t="s">
-        <v>457</v>
+        <v>976</v>
       </c>
       <c r="C832" s="49" t="s">
-        <v>457</v>
+        <v>976</v>
       </c>
       <c r="F832" s="49" t="s">
-        <v>684</v>
+        <v>577</v>
       </c>
     </row>
     <row r="833" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -25080,13 +25118,13 @@
         <v>308</v>
       </c>
       <c r="B834" s="49" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C834" s="49" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="F834" s="49" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="835" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -25094,24 +25132,24 @@
       <c r="C835" s="50"/>
       <c r="F835" s="50"/>
     </row>
-    <row r="836" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B836" s="50"/>
-      <c r="C836" s="50"/>
-      <c r="F836" s="50"/>
-    </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A837" t="s">
-        <v>308</v>
-      </c>
-      <c r="B837" s="49" t="s">
-        <v>977</v>
-      </c>
-      <c r="C837" s="49" t="s">
-        <v>977</v>
-      </c>
-      <c r="F837" s="49" t="s">
-        <v>686</v>
-      </c>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>308</v>
+      </c>
+      <c r="B836" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="C836" s="49" t="s">
+        <v>452</v>
+      </c>
+      <c r="F836" s="49" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B837" s="50"/>
+      <c r="C837" s="50"/>
+      <c r="F837" s="50"/>
     </row>
     <row r="838" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B838" s="50"/>
@@ -25123,85 +25161,76 @@
         <v>308</v>
       </c>
       <c r="B839" s="49" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C839" s="49" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F839" s="49" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A840" t="s">
-        <v>308</v>
-      </c>
-      <c r="B840" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="C840" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="F840" s="49" t="s">
-        <v>687</v>
-      </c>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B840" s="50"/>
+      <c r="C840" s="50"/>
+      <c r="F840" s="50"/>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>308</v>
       </c>
       <c r="B841" s="49" t="s">
-        <v>430</v>
+        <v>978</v>
       </c>
       <c r="C841" s="49" t="s">
-        <v>430</v>
+        <v>978</v>
       </c>
       <c r="F841" s="49" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="842" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B842" s="50"/>
-      <c r="C842" s="50"/>
-      <c r="F842" s="50"/>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>308</v>
+      </c>
+      <c r="B842" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="C842" s="49" t="s">
+        <v>404</v>
+      </c>
+      <c r="F842" s="49" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>308</v>
       </c>
       <c r="B843" s="49" t="s">
-        <v>979</v>
+        <v>430</v>
       </c>
       <c r="C843" s="49" t="s">
-        <v>979</v>
+        <v>430</v>
       </c>
       <c r="F843" s="49" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A844" t="s">
-        <v>308</v>
-      </c>
-      <c r="B844" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="C844" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="F844" s="49" t="s">
-        <v>688</v>
-      </c>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B844" s="50"/>
+      <c r="C844" s="50"/>
+      <c r="F844" s="50"/>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>308</v>
       </c>
       <c r="B845" s="49" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C845" s="49" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F845" s="49" t="s">
         <v>688</v>
@@ -25212,10 +25241,10 @@
         <v>308</v>
       </c>
       <c r="B846" s="49" t="s">
-        <v>477</v>
+        <v>415</v>
       </c>
       <c r="C846" s="49" t="s">
-        <v>477</v>
+        <v>415</v>
       </c>
       <c r="F846" s="49" t="s">
         <v>688</v>
@@ -25226,10 +25255,10 @@
         <v>308</v>
       </c>
       <c r="B847" s="49" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C847" s="49" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F847" s="49" t="s">
         <v>688</v>
@@ -25240,10 +25269,10 @@
         <v>308</v>
       </c>
       <c r="B848" s="49" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="C848" s="49" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="F848" s="49" t="s">
         <v>688</v>
@@ -25254,10 +25283,10 @@
         <v>308</v>
       </c>
       <c r="B849" s="49" t="s">
-        <v>426</v>
+        <v>981</v>
       </c>
       <c r="C849" s="49" t="s">
-        <v>426</v>
+        <v>981</v>
       </c>
       <c r="F849" s="49" t="s">
         <v>688</v>
@@ -25268,10 +25297,10 @@
         <v>308</v>
       </c>
       <c r="B850" s="49" t="s">
-        <v>982</v>
+        <v>461</v>
       </c>
       <c r="C850" s="49" t="s">
-        <v>982</v>
+        <v>461</v>
       </c>
       <c r="F850" s="49" t="s">
         <v>688</v>
@@ -25282,10 +25311,10 @@
         <v>308</v>
       </c>
       <c r="B851" s="49" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="C851" s="49" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="F851" s="49" t="s">
         <v>688</v>
@@ -25296,10 +25325,10 @@
         <v>308</v>
       </c>
       <c r="B852" s="49" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C852" s="49" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F852" s="49" t="s">
         <v>688</v>
@@ -25310,10 +25339,10 @@
         <v>308</v>
       </c>
       <c r="B853" s="49" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C853" s="49" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F853" s="49" t="s">
         <v>688</v>
@@ -25324,10 +25353,10 @@
         <v>308</v>
       </c>
       <c r="B854" s="49" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C854" s="49" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F854" s="49" t="s">
         <v>688</v>
@@ -25338,10 +25367,10 @@
         <v>308</v>
       </c>
       <c r="B855" s="49" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C855" s="49" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F855" s="49" t="s">
         <v>688</v>
@@ -25352,10 +25381,10 @@
         <v>308</v>
       </c>
       <c r="B856" s="49" t="s">
-        <v>432</v>
+        <v>984</v>
       </c>
       <c r="C856" s="49" t="s">
-        <v>432</v>
+        <v>984</v>
       </c>
       <c r="F856" s="49" t="s">
         <v>688</v>
@@ -25366,62 +25395,62 @@
         <v>308</v>
       </c>
       <c r="B857" s="49" t="s">
-        <v>467</v>
+        <v>408</v>
       </c>
       <c r="C857" s="49" t="s">
-        <v>467</v>
+        <v>408</v>
       </c>
       <c r="F857" s="49" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="858" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B858" s="50"/>
-      <c r="C858" s="50"/>
-      <c r="F858" s="50"/>
-    </row>
-    <row r="859" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B859" s="50"/>
-      <c r="C859" s="50"/>
-      <c r="F859" s="50"/>
-    </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A860" t="s">
-        <v>308</v>
-      </c>
-      <c r="B860" s="49" t="s">
-        <v>985</v>
-      </c>
-      <c r="C860" s="49" t="s">
-        <v>985</v>
-      </c>
-      <c r="F860" s="49" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A861" t="s">
-        <v>308</v>
-      </c>
-      <c r="B861" s="49" t="s">
-        <v>437</v>
-      </c>
-      <c r="C861" s="49" t="s">
-        <v>437</v>
-      </c>
-      <c r="F861" s="49" t="s">
-        <v>689</v>
-      </c>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>308</v>
+      </c>
+      <c r="B858" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="C858" s="49" t="s">
+        <v>432</v>
+      </c>
+      <c r="F858" s="49" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>308</v>
+      </c>
+      <c r="B859" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="C859" s="49" t="s">
+        <v>467</v>
+      </c>
+      <c r="F859" s="49" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B860" s="50"/>
+      <c r="C860" s="50"/>
+      <c r="F860" s="50"/>
+    </row>
+    <row r="861" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B861" s="50"/>
+      <c r="C861" s="50"/>
+      <c r="F861" s="50"/>
     </row>
     <row r="862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>308</v>
       </c>
       <c r="B862" s="49" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C862" s="49" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F862" s="49" t="s">
         <v>689</v>
@@ -25432,10 +25461,10 @@
         <v>308</v>
       </c>
       <c r="B863" s="49" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C863" s="49" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F863" s="49" t="s">
         <v>689</v>
@@ -25446,10 +25475,10 @@
         <v>308</v>
       </c>
       <c r="B864" s="49" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C864" s="49" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F864" s="49" t="s">
         <v>689</v>
@@ -25460,10 +25489,10 @@
         <v>308</v>
       </c>
       <c r="B865" s="49" t="s">
-        <v>988</v>
+        <v>441</v>
       </c>
       <c r="C865" s="49" t="s">
-        <v>988</v>
+        <v>441</v>
       </c>
       <c r="F865" s="49" t="s">
         <v>689</v>
@@ -25474,57 +25503,57 @@
         <v>308</v>
       </c>
       <c r="B866" s="49" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C866" s="49" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F866" s="49" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="867" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B867" s="50"/>
-      <c r="C867" s="50"/>
-      <c r="F867" s="50"/>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>308</v>
+      </c>
+      <c r="B867" s="49" t="s">
+        <v>988</v>
+      </c>
+      <c r="C867" s="49" t="s">
+        <v>988</v>
+      </c>
+      <c r="F867" s="49" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>308</v>
       </c>
       <c r="B868" s="49" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C868" s="49" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F868" s="49" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A869" t="s">
-        <v>308</v>
-      </c>
-      <c r="B869" s="49" t="s">
-        <v>440</v>
-      </c>
-      <c r="C869" s="49" t="s">
-        <v>440</v>
-      </c>
-      <c r="F869" s="49" t="s">
-        <v>690</v>
-      </c>
+        <v>689</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B869" s="50"/>
+      <c r="C869" s="50"/>
+      <c r="F869" s="50"/>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>308</v>
       </c>
       <c r="B870" s="49" t="s">
-        <v>423</v>
+        <v>990</v>
       </c>
       <c r="C870" s="49" t="s">
-        <v>423</v>
+        <v>990</v>
       </c>
       <c r="F870" s="49" t="s">
         <v>690</v>
@@ -25535,10 +25564,10 @@
         <v>308</v>
       </c>
       <c r="B871" s="49" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C871" s="49" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F871" s="49" t="s">
         <v>690</v>
@@ -25549,10 +25578,10 @@
         <v>308</v>
       </c>
       <c r="B872" s="49" t="s">
-        <v>991</v>
+        <v>423</v>
       </c>
       <c r="C872" s="49" t="s">
-        <v>991</v>
+        <v>423</v>
       </c>
       <c r="F872" s="49" t="s">
         <v>690</v>
@@ -25563,10 +25592,10 @@
         <v>308</v>
       </c>
       <c r="B873" s="49" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="C873" s="49" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="F873" s="49" t="s">
         <v>690</v>
@@ -25577,10 +25606,10 @@
         <v>308</v>
       </c>
       <c r="B874" s="49" t="s">
-        <v>403</v>
+        <v>991</v>
       </c>
       <c r="C874" s="49" t="s">
-        <v>403</v>
+        <v>991</v>
       </c>
       <c r="F874" s="49" t="s">
         <v>690</v>
@@ -25591,10 +25620,10 @@
         <v>308</v>
       </c>
       <c r="B875" s="49" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="C875" s="49" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="F875" s="49" t="s">
         <v>690</v>
@@ -25605,104 +25634,113 @@
         <v>308</v>
       </c>
       <c r="B876" s="49" t="s">
-        <v>992</v>
+        <v>403</v>
       </c>
       <c r="C876" s="49" t="s">
-        <v>992</v>
+        <v>403</v>
       </c>
       <c r="F876" s="49" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="877" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B877" s="50"/>
-      <c r="C877" s="50"/>
-      <c r="F877" s="50"/>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>308</v>
+      </c>
+      <c r="B877" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="C877" s="49" t="s">
+        <v>425</v>
+      </c>
+      <c r="F877" s="49" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>308</v>
       </c>
       <c r="B878" s="49" t="s">
+        <v>992</v>
+      </c>
+      <c r="C878" s="49" t="s">
+        <v>992</v>
+      </c>
+      <c r="F878" s="49" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B879" s="50"/>
+      <c r="C879" s="50"/>
+      <c r="F879" s="50"/>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>308</v>
+      </c>
+      <c r="B880" s="49" t="s">
         <v>458</v>
       </c>
-      <c r="C878" s="49" t="s">
+      <c r="C880" s="49" t="s">
         <v>458</v>
       </c>
-      <c r="F878" s="49" t="s">
+      <c r="F880" s="49" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A879" t="s">
-        <v>308</v>
-      </c>
-      <c r="B879" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="C879" s="49" t="s">
-        <v>455</v>
-      </c>
-      <c r="F879" s="49" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="880" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B880" s="50"/>
-      <c r="C880" s="50"/>
-      <c r="F880" s="50"/>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>308</v>
       </c>
       <c r="B881" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="C881" s="49" t="s">
+        <v>455</v>
+      </c>
+      <c r="F881" s="49" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B882" s="50"/>
+      <c r="C882" s="50"/>
+      <c r="F882" s="50"/>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>308</v>
+      </c>
+      <c r="B883" s="49" t="s">
         <v>993</v>
       </c>
-      <c r="C881" s="49" t="s">
+      <c r="C883" s="49" t="s">
         <v>993</v>
       </c>
-      <c r="F881" s="49" t="s">
+      <c r="F883" s="49" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A882" t="s">
-        <v>308</v>
-      </c>
-      <c r="B882" s="49" t="s">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>308</v>
+      </c>
+      <c r="B884" s="49" t="s">
         <v>994</v>
       </c>
-      <c r="C882" s="49" t="s">
+      <c r="C884" s="49" t="s">
         <v>994</v>
       </c>
-      <c r="F882" s="49" t="s">
+      <c r="F884" s="49" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="883" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B883" s="50"/>
-      <c r="C883" s="50"/>
-      <c r="F883" s="50"/>
-    </row>
-    <row r="884" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B884" s="50"/>
-      <c r="C884" s="50"/>
-      <c r="F884" s="50"/>
-    </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A885" t="s">
-        <v>308</v>
-      </c>
-      <c r="B885" s="49" t="s">
-        <v>439</v>
-      </c>
-      <c r="C885" s="49" t="s">
-        <v>439</v>
-      </c>
-      <c r="F885" s="49" t="s">
-        <v>693</v>
-      </c>
+    <row r="885" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B885" s="50"/>
+      <c r="C885" s="50"/>
+      <c r="F885" s="50"/>
     </row>
     <row r="886" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B886" s="50"/>
@@ -25714,93 +25752,93 @@
         <v>308</v>
       </c>
       <c r="B887" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="C887" s="49" t="s">
+        <v>439</v>
+      </c>
+      <c r="F887" s="49" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B888" s="50"/>
+      <c r="C888" s="50"/>
+      <c r="F888" s="50"/>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>308</v>
+      </c>
+      <c r="B889" s="49" t="s">
         <v>466</v>
       </c>
-      <c r="C887" s="49" t="s">
+      <c r="C889" s="49" t="s">
         <v>466</v>
       </c>
-      <c r="F887" s="49" t="s">
+      <c r="F889" s="49" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A888" t="s">
-        <v>308</v>
-      </c>
-      <c r="B888" s="49" t="s">
-        <v>995</v>
-      </c>
-      <c r="C888" s="49" t="s">
-        <v>995</v>
-      </c>
-      <c r="F888" s="49" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="889" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B889" s="50"/>
-      <c r="C889" s="50"/>
-      <c r="F889" s="50"/>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>308</v>
       </c>
       <c r="B890" s="49" t="s">
-        <v>465</v>
+        <v>995</v>
       </c>
       <c r="C890" s="49" t="s">
-        <v>465</v>
+        <v>995</v>
       </c>
       <c r="F890" s="49" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A891" t="s">
-        <v>308</v>
-      </c>
-      <c r="B891" s="49" t="s">
-        <v>436</v>
-      </c>
-      <c r="C891" s="49" t="s">
-        <v>436</v>
-      </c>
-      <c r="F891" s="49" t="s">
-        <v>695</v>
-      </c>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B891" s="50"/>
+      <c r="C891" s="50"/>
+      <c r="F891" s="50"/>
     </row>
     <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>308</v>
       </c>
       <c r="B892" s="49" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="C892" s="49" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="F892" s="49" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="893" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B893" s="50"/>
-      <c r="C893" s="50"/>
-      <c r="F893" s="50"/>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>308</v>
+      </c>
+      <c r="B893" s="49" t="s">
+        <v>436</v>
+      </c>
+      <c r="C893" s="49" t="s">
+        <v>436</v>
+      </c>
+      <c r="F893" s="49" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>308</v>
       </c>
       <c r="B894" s="49" t="s">
-        <v>996</v>
+        <v>444</v>
       </c>
       <c r="C894" s="49" t="s">
-        <v>996</v>
+        <v>444</v>
       </c>
       <c r="F894" s="49" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="895" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -25808,48 +25846,39 @@
       <c r="C895" s="50"/>
       <c r="F895" s="50"/>
     </row>
-    <row r="896" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B896" s="50"/>
-      <c r="C896" s="50"/>
-      <c r="F896" s="50"/>
-    </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A897" t="s">
-        <v>308</v>
-      </c>
-      <c r="B897" s="49" t="s">
-        <v>431</v>
-      </c>
-      <c r="C897" s="49" t="s">
-        <v>431</v>
-      </c>
-      <c r="F897" s="49" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A898" t="s">
-        <v>308</v>
-      </c>
-      <c r="B898" s="49" t="s">
-        <v>422</v>
-      </c>
-      <c r="C898" s="49" t="s">
-        <v>422</v>
-      </c>
-      <c r="F898" s="49" t="s">
-        <v>697</v>
-      </c>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>308</v>
+      </c>
+      <c r="B896" s="49" t="s">
+        <v>996</v>
+      </c>
+      <c r="C896" s="49" t="s">
+        <v>996</v>
+      </c>
+      <c r="F896" s="49" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B897" s="50"/>
+      <c r="C897" s="50"/>
+      <c r="F897" s="50"/>
+    </row>
+    <row r="898" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B898" s="50"/>
+      <c r="C898" s="50"/>
+      <c r="F898" s="50"/>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>308</v>
       </c>
       <c r="B899" s="49" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="C899" s="49" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="F899" s="49" t="s">
         <v>697</v>
@@ -25860,32 +25889,41 @@
         <v>308</v>
       </c>
       <c r="B900" s="49" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C900" s="49" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F900" s="49" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="901" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B901" s="50"/>
-      <c r="C901" s="50"/>
-      <c r="F901" s="50"/>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>308</v>
+      </c>
+      <c r="B901" s="49" t="s">
+        <v>459</v>
+      </c>
+      <c r="C901" s="49" t="s">
+        <v>459</v>
+      </c>
+      <c r="F901" s="49" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>308</v>
       </c>
       <c r="B902" s="49" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="C902" s="49" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="F902" s="49" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="903" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -25893,188 +25931,188 @@
       <c r="C903" s="50"/>
       <c r="F903" s="50"/>
     </row>
-    <row r="904" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B904" s="50"/>
-      <c r="C904" s="50"/>
-      <c r="F904" s="50"/>
-    </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A905" t="s">
-        <v>308</v>
-      </c>
-      <c r="B905" s="49" t="s">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>308</v>
+      </c>
+      <c r="B904" s="49" t="s">
+        <v>462</v>
+      </c>
+      <c r="C904" s="49" t="s">
+        <v>462</v>
+      </c>
+      <c r="F904" s="49" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B905" s="50"/>
+      <c r="C905" s="50"/>
+      <c r="F905" s="50"/>
+    </row>
+    <row r="906" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B906" s="50"/>
+      <c r="C906" s="50"/>
+      <c r="F906" s="50"/>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>308</v>
+      </c>
+      <c r="B907" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="C905" s="49" t="s">
+      <c r="C907" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="F905" s="49" t="s">
+      <c r="F907" s="49" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A906" t="s">
-        <v>308</v>
-      </c>
-      <c r="B906" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="C906" s="49" t="s">
-        <v>464</v>
-      </c>
-      <c r="F906" s="49" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="907" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B907" s="50"/>
-      <c r="C907" s="50"/>
-      <c r="F907" s="50"/>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>308</v>
       </c>
       <c r="B908" s="49" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="C908" s="49" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="F908" s="49" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A909" t="s">
-        <v>308</v>
-      </c>
-      <c r="B909" s="49" t="s">
-        <v>434</v>
-      </c>
-      <c r="C909" s="49" t="s">
-        <v>434</v>
-      </c>
-      <c r="F909" s="49" t="s">
-        <v>700</v>
-      </c>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B909" s="50"/>
+      <c r="C909" s="50"/>
+      <c r="F909" s="50"/>
     </row>
     <row r="910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>308</v>
       </c>
       <c r="B910" s="49" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="C910" s="49" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="F910" s="49" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="911" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B911" s="50"/>
-      <c r="C911" s="50"/>
-      <c r="F911" s="50"/>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>308</v>
+      </c>
+      <c r="B911" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="C911" s="49" t="s">
+        <v>434</v>
+      </c>
+      <c r="F911" s="49" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>308</v>
       </c>
       <c r="B912" s="49" t="s">
-        <v>997</v>
+        <v>433</v>
       </c>
       <c r="C912" s="49" t="s">
-        <v>997</v>
+        <v>433</v>
       </c>
       <c r="F912" s="49" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A913" t="s">
-        <v>308</v>
-      </c>
-      <c r="B913" s="49" t="s">
-        <v>998</v>
-      </c>
-      <c r="C913" s="49" t="s">
-        <v>998</v>
-      </c>
-      <c r="F913" s="49" t="s">
-        <v>582</v>
-      </c>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B913" s="50"/>
+      <c r="C913" s="50"/>
+      <c r="F913" s="50"/>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>308</v>
       </c>
       <c r="B914" s="49" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C914" s="49" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F914" s="49" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="915" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B915" s="50"/>
-      <c r="C915" s="50"/>
-      <c r="F915" s="50"/>
-    </row>
-    <row r="916" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B916" s="50"/>
-      <c r="C916" s="50"/>
-      <c r="F916" s="50"/>
-    </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A917" t="s">
-        <v>308</v>
-      </c>
-      <c r="B917" s="49" t="s">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>308</v>
+      </c>
+      <c r="B915" s="49" t="s">
+        <v>998</v>
+      </c>
+      <c r="C915" s="49" t="s">
+        <v>998</v>
+      </c>
+      <c r="F915" s="49" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>308</v>
+      </c>
+      <c r="B916" s="49" t="s">
+        <v>999</v>
+      </c>
+      <c r="C916" s="49" t="s">
+        <v>999</v>
+      </c>
+      <c r="F916" s="49" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B917" s="50"/>
+      <c r="C917" s="50"/>
+      <c r="F917" s="50"/>
+    </row>
+    <row r="918" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B918" s="50"/>
+      <c r="C918" s="50"/>
+      <c r="F918" s="50"/>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>308</v>
+      </c>
+      <c r="B919" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="C917" s="49" t="s">
+      <c r="C919" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="F917" s="49" t="s">
+      <c r="F919" s="49" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A918" t="s">
-        <v>308</v>
-      </c>
-      <c r="B918" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="C918" s="49" t="s">
-        <v>453</v>
-      </c>
-      <c r="F918" s="49" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="919" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B919" s="50"/>
-      <c r="C919" s="50"/>
-      <c r="F919" s="50"/>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>308</v>
       </c>
       <c r="B920" s="49" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="C920" s="49" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="F920" s="49" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="921" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -26087,13 +26125,13 @@
         <v>308</v>
       </c>
       <c r="B922" s="49" t="s">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="C922" s="49" t="s">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="F922" s="49" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="923" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -26106,137 +26144,128 @@
         <v>308</v>
       </c>
       <c r="B924" s="49" t="s">
-        <v>1000</v>
+        <v>478</v>
       </c>
       <c r="C924" s="49" t="s">
-        <v>1000</v>
+        <v>478</v>
       </c>
       <c r="F924" s="49" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A925" t="s">
-        <v>308</v>
-      </c>
-      <c r="B925" s="49" t="s">
-        <v>471</v>
-      </c>
-      <c r="C925" s="49" t="s">
-        <v>471</v>
-      </c>
-      <c r="F925" s="49" t="s">
-        <v>704</v>
-      </c>
+        <v>703</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B925" s="50"/>
+      <c r="C925" s="50"/>
+      <c r="F925" s="50"/>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>308</v>
       </c>
       <c r="B926" s="49" t="s">
-        <v>482</v>
+        <v>1000</v>
       </c>
       <c r="C926" s="49" t="s">
-        <v>482</v>
+        <v>1000</v>
       </c>
       <c r="F926" s="49" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="927" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B927" s="50"/>
-      <c r="C927" s="50"/>
-      <c r="F927" s="50"/>
-    </row>
-    <row r="928" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B928" s="50"/>
-      <c r="C928" s="50"/>
-      <c r="F928" s="50"/>
-    </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A929" t="s">
-        <v>308</v>
-      </c>
-      <c r="B929" s="49" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C929" s="49" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F929" s="49" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A930" t="s">
-        <v>308</v>
-      </c>
-      <c r="B930" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="C930" s="49" t="s">
-        <v>449</v>
-      </c>
-      <c r="F930" s="49" t="s">
-        <v>705</v>
-      </c>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>308</v>
+      </c>
+      <c r="B927" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="C927" s="49" t="s">
+        <v>471</v>
+      </c>
+      <c r="F927" s="49" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>308</v>
+      </c>
+      <c r="B928" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="C928" s="49" t="s">
+        <v>482</v>
+      </c>
+      <c r="F928" s="49" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B929" s="50"/>
+      <c r="C929" s="50"/>
+      <c r="F929" s="50"/>
+    </row>
+    <row r="930" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B930" s="50"/>
+      <c r="C930" s="50"/>
+      <c r="F930" s="50"/>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>308</v>
       </c>
       <c r="B931" s="49" t="s">
-        <v>475</v>
+        <v>1001</v>
       </c>
       <c r="C931" s="49" t="s">
-        <v>475</v>
+        <v>1001</v>
       </c>
       <c r="F931" s="49" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="932" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B932" s="50"/>
-      <c r="C932" s="50"/>
-      <c r="F932" s="50"/>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>308</v>
+      </c>
+      <c r="B932" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="C932" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="F932" s="49" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>308</v>
       </c>
       <c r="B933" s="49" t="s">
-        <v>410</v>
+        <v>475</v>
       </c>
       <c r="C933" s="49" t="s">
-        <v>410</v>
+        <v>475</v>
       </c>
       <c r="F933" s="49" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A934" t="s">
-        <v>308</v>
-      </c>
-      <c r="B934" s="49" t="s">
-        <v>419</v>
-      </c>
-      <c r="C934" s="49" t="s">
-        <v>419</v>
-      </c>
-      <c r="F934" s="49" t="s">
-        <v>706</v>
-      </c>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B934" s="50"/>
+      <c r="C934" s="50"/>
+      <c r="F934" s="50"/>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>308</v>
       </c>
       <c r="B935" s="49" t="s">
-        <v>1002</v>
+        <v>410</v>
       </c>
       <c r="C935" s="49" t="s">
-        <v>1002</v>
+        <v>410</v>
       </c>
       <c r="F935" s="49" t="s">
         <v>706</v>
@@ -26247,10 +26276,10 @@
         <v>308</v>
       </c>
       <c r="B936" s="49" t="s">
-        <v>480</v>
+        <v>419</v>
       </c>
       <c r="C936" s="49" t="s">
-        <v>480</v>
+        <v>419</v>
       </c>
       <c r="F936" s="49" t="s">
         <v>706</v>
@@ -26261,10 +26290,10 @@
         <v>308</v>
       </c>
       <c r="B937" s="49" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C937" s="49" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F937" s="49" t="s">
         <v>706</v>
@@ -26275,10 +26304,10 @@
         <v>308</v>
       </c>
       <c r="B938" s="49" t="s">
-        <v>401</v>
+        <v>480</v>
       </c>
       <c r="C938" s="49" t="s">
-        <v>401</v>
+        <v>480</v>
       </c>
       <c r="F938" s="49" t="s">
         <v>706</v>
@@ -26289,10 +26318,10 @@
         <v>308</v>
       </c>
       <c r="B939" s="49" t="s">
-        <v>473</v>
+        <v>1003</v>
       </c>
       <c r="C939" s="49" t="s">
-        <v>473</v>
+        <v>1003</v>
       </c>
       <c r="F939" s="49" t="s">
         <v>706</v>
@@ -26303,10 +26332,10 @@
         <v>308</v>
       </c>
       <c r="B940" s="49" t="s">
-        <v>1004</v>
+        <v>401</v>
       </c>
       <c r="C940" s="49" t="s">
-        <v>1004</v>
+        <v>401</v>
       </c>
       <c r="F940" s="49" t="s">
         <v>706</v>
@@ -26317,10 +26346,10 @@
         <v>308</v>
       </c>
       <c r="B941" s="49" t="s">
-        <v>1005</v>
+        <v>473</v>
       </c>
       <c r="C941" s="49" t="s">
-        <v>1005</v>
+        <v>473</v>
       </c>
       <c r="F941" s="49" t="s">
         <v>706</v>
@@ -26331,10 +26360,10 @@
         <v>308</v>
       </c>
       <c r="B942" s="49" t="s">
-        <v>447</v>
+        <v>1004</v>
       </c>
       <c r="C942" s="49" t="s">
-        <v>447</v>
+        <v>1004</v>
       </c>
       <c r="F942" s="49" t="s">
         <v>706</v>
@@ -26345,65 +26374,74 @@
         <v>308</v>
       </c>
       <c r="B943" s="49" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C943" s="49" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F943" s="49" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="944" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B944" s="50"/>
-      <c r="C944" s="50"/>
-      <c r="F944" s="50"/>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>308</v>
+      </c>
+      <c r="B944" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="C944" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="F944" s="49" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>308</v>
       </c>
       <c r="B945" s="49" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C945" s="49" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F945" s="49" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B946" s="50"/>
+      <c r="C946" s="50"/>
+      <c r="F946" s="50"/>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>308</v>
+      </c>
+      <c r="B947" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="C945" s="49" t="s">
+      <c r="C947" s="49" t="s">
         <v>474</v>
       </c>
-      <c r="F945" s="49" t="s">
+      <c r="F947" s="49" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A946" t="s">
-        <v>308</v>
-      </c>
-      <c r="B946" s="49" t="s">
-        <v>481</v>
-      </c>
-      <c r="C946" s="49" t="s">
-        <v>481</v>
-      </c>
-      <c r="F946" s="49" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="947" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B947" s="50"/>
-      <c r="C947" s="50"/>
-      <c r="F947" s="50"/>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>308</v>
       </c>
       <c r="B948" s="49" t="s">
-        <v>1007</v>
+        <v>481</v>
       </c>
       <c r="C948" s="49" t="s">
-        <v>1007</v>
+        <v>481</v>
       </c>
       <c r="F948" s="49" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="949" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -26416,13 +26454,13 @@
         <v>308</v>
       </c>
       <c r="B950" s="49" t="s">
-        <v>456</v>
+        <v>1007</v>
       </c>
       <c r="C950" s="49" t="s">
-        <v>456</v>
+        <v>1007</v>
       </c>
       <c r="F950" s="49" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="951" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -26435,13 +26473,13 @@
         <v>308</v>
       </c>
       <c r="B952" s="49" t="s">
-        <v>1008</v>
+        <v>456</v>
       </c>
       <c r="C952" s="49" t="s">
-        <v>1008</v>
+        <v>456</v>
       </c>
       <c r="F952" s="49" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="953" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -26449,24 +26487,24 @@
       <c r="C953" s="50"/>
       <c r="F953" s="50"/>
     </row>
-    <row r="954" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B954" s="50"/>
-      <c r="C954" s="50"/>
-      <c r="F954" s="50"/>
-    </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A955" t="s">
-        <v>308</v>
-      </c>
-      <c r="B955" s="49" t="s">
-        <v>438</v>
-      </c>
-      <c r="C955" s="49" t="s">
-        <v>438</v>
-      </c>
-      <c r="F955" s="49" t="s">
-        <v>711</v>
-      </c>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>308</v>
+      </c>
+      <c r="B954" s="49" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C954" s="49" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F954" s="49" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B955" s="50"/>
+      <c r="C955" s="50"/>
+      <c r="F955" s="50"/>
     </row>
     <row r="956" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B956" s="50"/>
@@ -26478,71 +26516,62 @@
         <v>308</v>
       </c>
       <c r="B957" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="C957" s="49" t="s">
+        <v>438</v>
+      </c>
+      <c r="F957" s="49" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B958" s="50"/>
+      <c r="C958" s="50"/>
+      <c r="F958" s="50"/>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>308</v>
+      </c>
+      <c r="B959" s="49" t="s">
         <v>1009</v>
       </c>
-      <c r="C957" s="49" t="s">
+      <c r="C959" s="49" t="s">
         <v>1009</v>
       </c>
-      <c r="F957" s="49" t="s">
+      <c r="F959" s="49" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A958" t="s">
-        <v>308</v>
-      </c>
-      <c r="B958" s="49" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C958" s="49" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F958" s="49" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="959" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B959" s="50"/>
-      <c r="C959" s="50"/>
-      <c r="F959" s="50"/>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>308</v>
       </c>
       <c r="B960" s="49" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C960" s="49" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F960" s="49" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A961" t="s">
-        <v>308</v>
-      </c>
-      <c r="B961" s="49" t="s">
-        <v>448</v>
-      </c>
-      <c r="C961" s="49" t="s">
-        <v>448</v>
-      </c>
-      <c r="F961" s="49" t="s">
-        <v>713</v>
-      </c>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B961" s="50"/>
+      <c r="C961" s="50"/>
+      <c r="F961" s="50"/>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>308</v>
       </c>
       <c r="B962" s="49" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C962" s="49" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F962" s="49" t="s">
         <v>713</v>
@@ -26553,31 +26582,59 @@
         <v>308</v>
       </c>
       <c r="B963" s="49" t="s">
-        <v>1013</v>
+        <v>448</v>
       </c>
       <c r="C963" s="49" t="s">
-        <v>1013</v>
+        <v>448</v>
       </c>
       <c r="F963" s="49" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="964" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B964" s="50"/>
-      <c r="C964" s="50"/>
-      <c r="F964" s="50"/>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>308</v>
+      </c>
+      <c r="B964" s="49" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C964" s="49" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F964" s="49" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>308</v>
       </c>
       <c r="B965" s="49" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C965" s="49" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F965" s="49" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B966" s="50"/>
+      <c r="C966" s="50"/>
+      <c r="F966" s="50"/>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>308</v>
+      </c>
+      <c r="B967" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="C965" s="49" t="s">
+      <c r="C967" s="49" t="s">
         <v>468</v>
       </c>
-      <c r="F965" s="49" t="s">
+      <c r="F967" s="49" t="s">
         <v>714</v>
       </c>
     </row>
@@ -26634,15 +26691,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
@@ -26683,11 +26740,11 @@
         <v>218</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="C2" s="24">
         <f ca="1">NOW()</f>
-        <v>44880.987662037034</v>
+        <v>44883.664660300929</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>215</v>

--- a/forms/contact/suspected_case-edit.xlsx
+++ b/forms/contact/suspected_case-edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tija Mbararieny\Research Work\HIDGA Digital Health\CHT Toolkit and Forms\Devolved Community Testing\Communty Testing Malaria_Covid_CHV Commtest Server_Server 2\Revised Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFAE846-79A5-4C21-9D8F-EBCAB1CF34F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58B2586-E602-413D-B64D-5A8141AF8416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$N$55</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3523" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3503" uniqueCount="1092">
   <si>
     <t>type</t>
   </si>
@@ -3297,19 +3297,10 @@
     <t>I am currently on treatment</t>
   </si>
   <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>trace_contact</t>
-  </si>
-  <si>
-    <t>PARENT</t>
+    <t>contact:suspected_case:edit</t>
   </si>
   <si>
     <t>Edit Suspected Case</t>
-  </si>
-  <si>
-    <t>contact:suspected_case:edit</t>
   </si>
 </sst>
 </file>
@@ -3680,7 +3671,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{A74C0039-9974-4478-A1FA-5F9B70CF4227}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{A15D1226-8CF2-438D-8DB4-1551DF3197F5}"/>
   </cellStyles>
-  <dxfs count="395">
+  <dxfs count="384">
     <dxf>
       <fill>
         <patternFill>
@@ -3729,46 +3720,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF980000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCCC"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCE5CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9EAD3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF76A5AF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3824,73 +3775,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC27BA0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCFE2F3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAD1DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7875,13 +7759,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N955"/>
+  <dimension ref="A1:N951"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8137,9 +8021,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
@@ -8161,9 +8043,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="6" t="s">
-        <v>1091</v>
-      </c>
+      <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
@@ -8185,9 +8065,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
-        <v>1092</v>
-      </c>
+      <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
@@ -8209,138 +8087,140 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="6" t="s">
-        <v>194</v>
-      </c>
+      <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" t="s">
+        <v>282</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" t="s">
+        <v>293</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>285</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" t="s">
+        <v>286</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>1090</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" t="s">
+        <v>288</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" t="s">
-        <v>282</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>16</v>
@@ -8351,7 +8231,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -8361,22 +8241,20 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>499</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" t="s">
-        <v>286</v>
-      </c>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -8385,74 +8263,68 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" t="s">
-        <v>288</v>
-      </c>
+      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>291</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>298</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="3"/>
+        <v>488</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" t="s">
-        <v>290</v>
-      </c>
+      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -8464,13 +8336,15 @@
         <v>29</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>499</v>
+        <v>246</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>247</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -8483,17 +8357,23 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+        <v>491</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -8505,16 +8385,18 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>482</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>245</v>
+        <v>483</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -8525,23 +8407,21 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -8552,19 +8432,13 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>490</v>
-      </c>
+      <c r="A28" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>247</v>
-      </c>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -8576,24 +8450,9 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -8604,18 +8463,18 @@
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>492</v>
+      <c r="A30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -8627,24 +8486,21 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
     </row>
-    <row r="31" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>493</v>
+        <v>31</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>256</v>
-      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -8652,17 +8508,27 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="I32" s="12"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -8670,159 +8536,168 @@
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D34" s="3"/>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="E34" s="3" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>32</v>
+      <c r="B38" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>231</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
-      <c r="I38" s="10"/>
+      <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="3" t="s">
-        <v>235</v>
-      </c>
+      <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C39" s="3"/>
+      <c r="A39" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D39" s="7"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="10" t="s">
-        <v>283</v>
-      </c>
+      <c r="I39" s="7"/>
       <c r="J39" s="7"/>
-      <c r="K39" s="3"/>
+      <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
@@ -8832,22 +8707,23 @@
         <v>18</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
@@ -8857,44 +8733,44 @@
         <v>18</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>233</v>
-      </c>
+      <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="10"/>
+      <c r="H41" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-      <c r="K41" s="7" t="s">
-        <v>234</v>
-      </c>
+      <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>38</v>
+      <c r="A42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
@@ -8903,19 +8779,23 @@
       <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>40</v>
+      <c r="A43" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="I43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
@@ -8923,25 +8803,23 @@
       <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>18</v>
+      <c r="A44" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="I44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -8950,23 +8828,23 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="7" t="s">
-        <v>240</v>
-      </c>
+      <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
@@ -8976,21 +8854,23 @@
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G46" s="7"/>
-      <c r="H46" s="7" t="s">
-        <v>240</v>
-      </c>
+      <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
@@ -8998,74 +8878,82 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+    <row r="47" spans="1:14" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+    </row>
+    <row r="48" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="36"/>
+      <c r="G48" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B49" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-    </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-    </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="D49" s="7"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F49" s="3"/>
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="I49" s="3" t="s">
+        <v>303</v>
+      </c>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
@@ -9073,25 +8961,23 @@
       <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>55</v>
+      <c r="A50" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>56</v>
+        <v>300</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D50" s="7"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F50" s="3"/>
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="I50" s="3" t="s">
+        <v>304</v>
+      </c>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
@@ -9099,26 +8985,23 @@
       <c r="N50" s="7"/>
     </row>
     <row r="51" spans="1:14" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="32" t="s">
-        <v>58</v>
+      <c r="A51" s="40" t="s">
+        <v>29</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>59</v>
+        <v>302</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>60</v>
+        <v>306</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="41" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32" t="s">
-        <v>61</v>
-      </c>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
       <c r="I51" s="33"/>
       <c r="J51" s="33"/>
       <c r="K51" s="33"/>
@@ -9127,28 +9010,14 @@
       <c r="N51" s="33"/>
     </row>
     <row r="52" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" s="36" t="s">
-        <v>64</v>
-      </c>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="36"/>
-      <c r="G52" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="H52" s="36" t="s">
-        <v>273</v>
-      </c>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
       <c r="I52" s="37"/>
       <c r="J52" s="37"/>
       <c r="K52" s="37"/>
@@ -9156,150 +9025,141 @@
       <c r="M52" s="37"/>
       <c r="N52" s="37"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
+    <row r="53" spans="1:14" s="34" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-    </row>
-    <row r="55" spans="1:14" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="40" t="s">
+      <c r="B53" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="D53" s="33"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+    </row>
+    <row r="54" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="35"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="41" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="32"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-    </row>
-    <row r="56" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="37"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="37"/>
-    </row>
-    <row r="57" spans="1:14" s="34" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="C57" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-    </row>
-    <row r="58" spans="1:14" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="35"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
+      <c r="B57" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D59" s="7"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F59" s="17"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
@@ -9310,20 +9170,20 @@
       <c r="N59" s="7"/>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>72</v>
+      <c r="A60" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F60" s="17"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
@@ -9333,15 +9193,15 @@
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -9356,14 +9216,20 @@
       <c r="N61" s="7"/>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="17"/>
+      <c r="F62" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -9374,58 +9240,82 @@
       <c r="N62" s="7"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="A63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
+      <c r="K63" s="3" t="s">
+        <v>305</v>
+      </c>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
-        <v>14</v>
+      <c r="A64" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F64" s="17"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
+      <c r="K64" s="3" t="s">
+        <v>305</v>
+      </c>
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
     </row>
-    <row r="65" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
-        <v>29</v>
+    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>275</v>
+        <v>85</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65" s="3"/>
+        <v>221</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="17"/>
+      <c r="F65" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
@@ -9437,15 +9327,17 @@
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D66" s="3"/>
+        <v>222</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3" t="s">
         <v>71</v>
@@ -9453,7 +9345,9 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
+      <c r="J66" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
@@ -9461,81 +9355,75 @@
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>62</v>
+        <v>237</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>219</v>
-      </c>
+      <c r="F67" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
       <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="3" t="s">
-        <v>305</v>
-      </c>
+      <c r="J67" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>62</v>
+        <v>481</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>82</v>
+        <v>500</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>83</v>
+        <v>498</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>219</v>
-      </c>
+      <c r="F68" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
       <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="3" t="s">
-        <v>305</v>
-      </c>
+      <c r="J68" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="K68" s="7"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>221</v>
+        <v>274</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E69" s="3"/>
-      <c r="F69" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F69" s="3"/>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
@@ -9547,147 +9435,135 @@
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F70" s="3"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
-      <c r="J70" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7" t="s">
+        <v>224</v>
+      </c>
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
     </row>
-    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-    </row>
-    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>481</v>
+        <v>29</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>500</v>
+        <v>94</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-    </row>
-    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>274</v>
+        <v>97</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-    </row>
-    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
+      <c r="F74" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D75" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -9701,17 +9577,21 @@
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D76" s="3"/>
+        <v>258</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
+      <c r="F76" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
@@ -9723,17 +9603,11 @@
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -9747,21 +9621,17 @@
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -9772,18 +9642,10 @@
       <c r="N78" s="3"/>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -9797,21 +9659,19 @@
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
@@ -9821,12 +9681,16 @@
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
     </row>
-    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>501</v>
+      </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -9840,18 +9704,22 @@
       <c r="N81" s="3"/>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D82" s="3"/>
+      <c r="A82" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
+      <c r="F82" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -9862,12 +9730,24 @@
       <c r="N82" s="3"/>
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
+      <c r="A83" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -9878,18 +9758,18 @@
       <c r="N83" s="3"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>278</v>
+      <c r="A84" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>517</v>
       </c>
       <c r="D84" s="3"/>
-      <c r="E84" s="3" t="s">
-        <v>250</v>
+      <c r="E84" s="29" t="s">
+        <v>1008</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -9901,19 +9781,22 @@
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
     </row>
-    <row r="85" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -9925,18 +9808,20 @@
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
-        <v>55</v>
+        <v>503</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E86" s="3"/>
+      <c r="E86" s="3" t="s">
+        <v>522</v>
+      </c>
       <c r="F86" s="3" t="s">
         <v>71</v>
       </c>
@@ -9951,23 +9836,19 @@
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="27" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="29" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -9979,18 +9860,12 @@
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="B88" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>517</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="29" t="s">
-        <v>1008</v>
-      </c>
+      <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -10002,21 +9877,12 @@
       <c r="N88" s="3"/>
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B89" s="27" t="s">
-        <v>496</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>497</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -10027,24 +9893,20 @@
       <c r="N89" s="3"/>
     </row>
     <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="27" t="s">
-        <v>503</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>506</v>
+      <c r="A90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -10054,20 +9916,18 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
     </row>
-    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="27" t="s">
-        <v>482</v>
-      </c>
-      <c r="B91" s="27" t="s">
-        <v>520</v>
-      </c>
-      <c r="C91" s="27" t="s">
-        <v>517</v>
+    <row r="91" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>494</v>
       </c>
       <c r="D91" s="3"/>
-      <c r="E91" s="29" t="s">
-        <v>1007</v>
-      </c>
+      <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -10080,13 +9940,20 @@
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>523</v>
+      </c>
+      <c r="D92" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -10097,11 +9964,21 @@
       <c r="N92" s="3"/>
     </row>
     <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
+      <c r="A93" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="C93" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="D93" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" s="27" t="s">
+        <v>535</v>
+      </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -10113,18 +9990,20 @@
       <c r="N93" s="3"/>
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C94" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3" t="s">
-        <v>250</v>
+      <c r="A94" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" s="27" t="s">
+        <v>540</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -10136,18 +10015,22 @@
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
     </row>
-    <row r="95" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>539</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>543</v>
+      </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -10163,10 +10046,10 @@
         <v>55</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>261</v>
+        <v>538</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>523</v>
+        <v>266</v>
       </c>
       <c r="D96" s="27" t="s">
         <v>44</v>
@@ -10185,50 +10068,46 @@
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="27" t="s">
-        <v>55</v>
+        <v>525</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>262</v>
+        <v>541</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>524</v>
+        <v>1006</v>
       </c>
       <c r="D97" s="27" t="s">
         <v>44</v>
       </c>
       <c r="E97" s="27" t="s">
-        <v>535</v>
-      </c>
-      <c r="F97" s="3"/>
+        <v>544</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
+      <c r="K97" s="27"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="C98" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="D98" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E98" s="27" t="s">
-        <v>540</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="C98" s="27"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
+      <c r="I98" s="29" t="s">
+        <v>545</v>
+      </c>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -10237,20 +10116,15 @@
     </row>
     <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="C99" s="30" t="s">
-        <v>539</v>
-      </c>
-      <c r="D99" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E99" s="27" t="s">
-        <v>543</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="D99" s="27"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
@@ -10261,22 +10135,21 @@
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
     </row>
-    <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A100" s="27" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>538</v>
-      </c>
-      <c r="C100" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C100" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="D100" s="27"/>
+      <c r="E100" s="31" t="s">
+        <v>536</v>
+      </c>
+      <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -10287,147 +10160,144 @@
       <c r="N100" s="3"/>
     </row>
     <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="B101" s="27" t="s">
-        <v>541</v>
-      </c>
-      <c r="C101" s="30" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D101" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E101" s="27" t="s">
-        <v>544</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
-      <c r="K101" s="27"/>
+      <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B102" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="C102" s="27"/>
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
-      <c r="I102" s="29" t="s">
-        <v>545</v>
-      </c>
+      <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
     </row>
-    <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="C103" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="D103" s="27"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-    </row>
-    <row r="104" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A104" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B104" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C104" s="28" t="s">
-        <v>537</v>
-      </c>
-      <c r="D104" s="27"/>
-      <c r="E104" s="31" t="s">
-        <v>536</v>
-      </c>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
-    </row>
-    <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+    <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+    </row>
+    <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="7"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+    </row>
+    <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="7"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+    </row>
+    <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+    </row>
+    <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-    </row>
-    <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-      <c r="N106" s="3"/>
-    </row>
-    <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
       <c r="D107" s="17"/>
       <c r="E107" s="17"/>
-      <c r="F107" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="F107" s="17"/>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
@@ -10438,113 +10308,27 @@
       <c r="N107" s="17"/>
     </row>
     <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108" s="7"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
-      <c r="L108" s="8"/>
-      <c r="M108" s="8"/>
-      <c r="N108" s="8"/>
-    </row>
-    <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="7"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
-      <c r="L109" s="8"/>
-      <c r="M109" s="8"/>
-      <c r="N109" s="8"/>
-    </row>
-    <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" s="7"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
-      <c r="L110" s="8"/>
-      <c r="M110" s="8"/>
-      <c r="N110" s="8"/>
-    </row>
-    <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="18" t="s">
+      <c r="A108" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-    </row>
-    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-    </row>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+    </row>
+    <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11384,1841 +11168,1784 @@
     <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A42:J42 A43:F46 I43:J46 A47:J52 K41:K52 D33:N33 E36:E37 A34:N34 L38:N52 F60:K66 A80:N81 E105:E106 A103:D106 J35:N37 F35:H37 A35:D37 A60:D68 C84:C85 C95 A23:H23 J23:N23 A24:N29 L59:N72 A59:K59 F103:N106 F102:H102 J102:N102 A56:N58 A22:N22 A31:N32 A72:D79 F72:N79 A86:E86 A89:D89 A92:E93 B87:D88 B90:E91 A96:D101 F82:N101 A107:N955 A1:N9 A14:N17 A10:K13 M10:N13">
-    <cfRule type="containsText" dxfId="394" priority="362" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:H42 A43:F46 F38:H41 C27:C28 I38:J52 A47:H52 K41:K52 L38:N52 A26:N26 A27:B29 A32:C32 A36:H37 D27:N29 E105:E106 A103:D106 J35:N37 A35:D35 F35:H35 A24:N24 A59:H59 A21:H21 J21:N21 F103:N106 F102:H102 J102:N102 J23:N23 A23:H23 A56:N58 A22:N22 D31:N32 A31:B32 A92:E93 A96:D101 F92:N101 A107:N955 A60:D63 A64:B65 D64:D65 A80:N81 C64 C84 F75:N79 A69:H72 F73:H74 I59:N74 A86:E86 A89:D89 B87:D88 B90:E90 B91:D91 F82:N90 F91 E61:E63 A66:E68 A73:E79 A82:E83 A84:B85 D84:D85 F60:H68 A1:N9 A14:N17 A10:K13 M10:N13">
-    <cfRule type="expression" dxfId="393" priority="363">
+  <conditionalFormatting sqref="A38:J38 A39:F42 I39:J42 A43:J48 K37:K48 D29:N29 E32:E33 A30:N30 L34:N48 F56:K62 A1:N13 A76:N77 E101:E102 A99:D102 J31:N33 F31:H33 A31:D33 A56:D64 C80:C81 C91 A19:H19 J19:N19 A20:N25 L55:N68 A55:K55 F99:N102 F98:H98 J98:N98 A52:N54 A18:N18 A27:N28 A68:D75 F68:N75 A82:E82 A85:D85 A88:E89 B83:D84 B86:E87 A92:D97 F78:N97 A103:N951">
+    <cfRule type="containsText" dxfId="383" priority="323" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:H38 A39:F42 F34:H37 C23:C24 I34:J48 A43:H48 K37:K48 L34:N48 A1:N13 A22:N22 A23:B25 A28:C28 A32:H33 D23:N25 E101:E102 A99:D102 J31:N33 A31:D31 F31:H31 A20:N20 A55:H55 A17:H17 J17:N17 F99:N102 F98:H98 J98:N98 J19:N19 A19:H19 A52:N54 A18:N18 D27:N28 A27:B28 A88:E89 A92:D97 F88:N97 A103:N951 A56:D59 A60:B61 D60:D61 A76:N77 C60 C80 F71:N75 A65:H68 F69:H70 I55:N70 A82:E82 A85:D85 B83:D84 B86:E86 B87:D87 F78:N86 F87 E57:E59 A62:E64 A69:E75 A78:E79 A80:B81 D80:D81 F56:H64">
+    <cfRule type="expression" dxfId="382" priority="324">
       <formula>AND($A1="begin group", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:J42 A43:F46 I43:J46 A47:J52 K41:K52 L38:N52 D33:N33 E36:E37 A34:N34 F60:J66 A80:N81 E105:E106 A103:D106 J35:N37 F35:H37 A35:D37 A60:D68 C84:C85 C95 A23:H23 J23:N23 A24:N29 K59:N72 A59:J59 F103:N106 F102:H102 J102:N102 A56:N58 A22:N22 A31:N32 A72:D79 F72:N79 A86:E86 A89:D89 A92:E93 B87:D88 B90:E91 A96:D101 F82:N101 A107:N955 A1:N9 A14:N17 A10:K13 M10:N13">
-    <cfRule type="cellIs" dxfId="392" priority="365" operator="equal">
+  <conditionalFormatting sqref="A38:J38 A39:F42 I39:J42 A43:J48 K37:K48 L34:N48 D29:N29 E32:E33 A30:N30 F56:J62 A1:N13 A76:N77 E101:E102 A99:D102 J31:N33 F31:H33 A31:D33 A56:D64 C80:C81 C91 A19:H19 J19:N19 A20:N25 K55:N68 A55:J55 F99:N102 F98:H98 J98:N98 A52:N54 A18:N18 A27:N28 A68:D75 F68:N75 A82:E82 A85:D85 A88:E89 B83:D84 B86:E87 A92:D97 F78:N97 A103:N951">
+    <cfRule type="cellIs" dxfId="381" priority="326" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I52 I25:I29 I103:I955 I22 I31:I32 I92:I101 I56:I90 I1:I17">
-    <cfRule type="expression" dxfId="391" priority="366">
+  <conditionalFormatting sqref="I1:I13 I34:I48 I21:I25 I99:I951 I18 I27:I28 I88:I97 I52:I86">
+    <cfRule type="expression" dxfId="380" priority="327">
       <formula>AND($I1 = "", $A1 = "calculate")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C28 C35:C52 C24 C21:C22 C96:C955 C56:C64 C86:C94 C66:C84 C1:C17">
-    <cfRule type="expression" dxfId="390" priority="367">
+  <conditionalFormatting sqref="C1:C13 C22:C24 C31:C48 C20 C17:C18 C92:C951 C52:C60 C82:C90 C62:C80">
+    <cfRule type="expression" dxfId="379" priority="328">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $C1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B29 B35:B52 B24 B21:B22 B31:B32 B56:B955 B1:B17">
-    <cfRule type="expression" dxfId="389" priority="368">
+  <conditionalFormatting sqref="B1:B13 B22:B25 B31:B48 B20 B17:B18 B27:B28 B52:B951">
+    <cfRule type="expression" dxfId="378" priority="329">
       <formula>AND(AND(NOT($A1 = "end group"), NOT($A1 = "end repeat"), NOT($A1 = "")), $B1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C34 A34:A52 A24:A29 A56:A70 A22 A31:A32 A72:A86 A89 A92:A955 A1:A17">
-    <cfRule type="cellIs" dxfId="388" priority="369" operator="equal">
+  <conditionalFormatting sqref="A1:A13 A30:C30 A30:A48 A20:A25 A52:A66 A18 A27:A28 A68:A82 A85 A88:A951">
+    <cfRule type="cellIs" dxfId="377" priority="330" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="387" priority="371" operator="notEqual">
+    <cfRule type="cellIs" dxfId="376" priority="332" operator="notEqual">
       <formula>"name"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsText" dxfId="386" priority="372" operator="notContains" text="label"/>
+    <cfRule type="notContainsText" dxfId="375" priority="333" operator="notContains" text="label"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="385" priority="373" operator="notEqual">
+    <cfRule type="cellIs" dxfId="374" priority="334" operator="notEqual">
       <formula>"required"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="384" priority="374" operator="notEqual">
+    <cfRule type="cellIs" dxfId="373" priority="335" operator="notEqual">
       <formula>"relevant"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="383" priority="375" operator="notEqual">
+    <cfRule type="cellIs" dxfId="372" priority="336" operator="notEqual">
       <formula>"appearance"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="382" priority="376" operator="notEqual">
+    <cfRule type="cellIs" dxfId="371" priority="337" operator="notEqual">
       <formula>"constraint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="notContainsText" dxfId="381" priority="377" operator="notContains" text="constraint_message"/>
+    <cfRule type="notContainsText" dxfId="370" priority="338" operator="notContains" text="constraint_message"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="380" priority="378" operator="notEqual">
+    <cfRule type="cellIs" dxfId="369" priority="339" operator="notEqual">
       <formula>"calculation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="379" priority="379" operator="notEqual">
+    <cfRule type="cellIs" dxfId="368" priority="340" operator="notEqual">
       <formula>"choice_filter"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1">
-    <cfRule type="notContainsText" dxfId="378" priority="380" operator="notContains" text="hint"/>
+    <cfRule type="notContainsText" dxfId="367" priority="341" operator="notContains" text="hint"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="377" priority="381" operator="notEqual">
+    <cfRule type="cellIs" dxfId="366" priority="342" operator="notEqual">
       <formula>"default"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1">
-    <cfRule type="cellIs" dxfId="376" priority="382" operator="notEqual">
+    <cfRule type="cellIs" dxfId="365" priority="343" operator="notEqual">
       <formula>"media::image"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47:H52 H24:H29 H21:H22 H31:H42 H56:H955 H1:H17">
-    <cfRule type="expression" dxfId="375" priority="383">
+  <conditionalFormatting sqref="H43:H48 H1:H13 H20:H25 H17:H18 H27:H38 H52:H951">
+    <cfRule type="expression" dxfId="364" priority="344">
       <formula>AND(NOT($G1 = ""), $H1 = "")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:H42 A43:F46 F38:H41 C27:C28 I38:J52 A47:H52 K41:K52 L38:N52 A26:N26 A27:B29 A32:C32 A36:H37 D27:N29 E105:E106 A103:D106 J35:N37 A35:D35 F35:H35 A24:N24 A59:H59 A21:H21 J21:N21 F103:N106 F102:H102 J102:N102 J23:N23 A23:H23 A56:N58 A22:N22 D31:N32 A31:B32 A92:E93 A96:D101 F92:N101 A107:N955 A60:D63 A64:B65 D64:D65 A80:N81 C64 C84 F75:N79 A69:H72 F73:H74 I59:N74 A86:E86 A89:D89 B87:D88 B90:E90 B91:D91 F82:N90 F91 E61:E63 A66:E68 A73:E79 A84:B85 D84:D85 A82:E83 F60:H68 A1:N9 A14:N17 A10:K13 M10:N13">
-    <cfRule type="expression" dxfId="374" priority="384">
+  <conditionalFormatting sqref="A38:H38 A39:F42 F34:H37 C23:C24 I34:J48 A43:H48 K37:K48 L34:N48 A1:N13 A22:N22 A23:B25 A28:C28 A32:H33 D23:N25 E101:E102 A99:D102 J31:N33 A31:D31 F31:H31 A20:N20 A55:H55 A17:H17 J17:N17 F99:N102 F98:H98 J98:N98 J19:N19 A19:H19 A52:N54 A18:N18 D27:N28 A27:B28 A88:E89 A92:D97 F88:N97 A103:N951 A56:D59 A60:B61 D60:D61 A76:N77 C60 C80 F71:N75 A65:H68 F69:H70 I55:N70 A82:E82 A85:D85 B83:D84 B86:E86 B87:D87 F78:N86 F87 E57:E59 A62:E64 A69:E75 A80:B81 D80:D81 A78:E79 F56:H64">
+    <cfRule type="expression" dxfId="363" priority="345">
       <formula>AND($A1="begin repeat", NOT($B1 = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F60:J60 F105:N106 A105:D106 A57:N58 A22:N22 F96:F101 F92:N93 A92:D93 A60:D63 E61:J63 C64 F82:N83 C84 A86:D86 B87:D88 F86:N88 A66:J68 A71:J81 A82:D83 A15:D17 F15:F17 A14:F14">
-    <cfRule type="expression" dxfId="373" priority="387">
-      <formula>AND($A14="end repeat", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F60:J60 F105:N106 A105:D106 A57:N58 A22:N22 F96:F101 F92:N93 A92:D93 A60:D63 E61:J63 C64 F82:N83 C84 A86:D86 B87:D88 F86:N88 A66:J68 A71:J81 A82:D83 A15:D17 F15:F17 A14:F14">
-    <cfRule type="expression" dxfId="372" priority="389">
-      <formula>AND($A14="end group", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $I14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E83">
-    <cfRule type="cellIs" dxfId="371" priority="393" operator="equal">
+  <conditionalFormatting sqref="F56:J56 F101:N102 A101:D102 A53:N54 A18:N18 F92:F97 F88:N89 A88:D89 A56:D59 E57:J59 C60 F78:N79 C80 A82:D82 B83:D84 F82:N84 A62:J64 A67:J77 A78:D79">
+    <cfRule type="expression" dxfId="362" priority="348">
+      <formula>AND($A18="end repeat", $B18 = "", $C18 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56:J56 F101:N102 A101:D102 A53:N54 A18:N18 F92:F97 F88:N89 A88:D89 A56:D59 E57:J59 C60 F78:N79 C80 A82:D82 B83:D84 F82:N84 A62:J64 A67:J77 A78:D79">
+    <cfRule type="expression" dxfId="361" priority="350">
+      <formula>AND($A18="end group", $B18 = "", $C18 = "", $D18 = "", $E18 = "", $F18 = "", $G18 = "", $H18 = "", $I18 = "", $J18 = "", $K18 = "", $L18 = "", $M18 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="cellIs" dxfId="360" priority="354" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:K39">
-    <cfRule type="expression" dxfId="370" priority="396">
-      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K38 = "", $L40 = "", $M40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="369" priority="397">
-      <formula>AND($A35="begin repeat", NOT($B35 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38:K39">
-    <cfRule type="expression" dxfId="368" priority="398">
-      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K38 = "", $L40 = "", $M40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="expression" dxfId="367" priority="399">
-      <formula>AND($A35="begin group", NOT($B35 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C28 C24 C35:C37 C14">
-    <cfRule type="expression" dxfId="366" priority="400">
-      <formula>AND($C14 = "", $A14 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C28 C36:C37 C24 C14">
-    <cfRule type="expression" dxfId="365" priority="401">
-      <formula>AND($A14="end repeat", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $C14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C28 C36:C37 C24 C14">
-    <cfRule type="expression" dxfId="364" priority="402">
-      <formula>AND($A14="end group", $B14 = "", $C14 = "", $D14 = "", $E14 = "", $F14 = "", $G14 = "", $H14 = "", $C14 = "", $J14 = "", $K14 = "", $L14 = "", $M14 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38:K39 F38:J41 A69:K70 A38:C41 F67:F68 H67:K68 B71:D72 F71:I72 K71:K72">
-    <cfRule type="containsText" dxfId="363" priority="403" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:C41">
-    <cfRule type="expression" dxfId="362" priority="404">
-      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:C41 F38:J41">
-    <cfRule type="expression" dxfId="361" priority="405">
-      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38:K39 F38:J41 A69:J70 A38:C41 F67:F68 H67:J68 B71:D72 F71:I72">
-    <cfRule type="cellIs" dxfId="360" priority="406" operator="equal">
+  <conditionalFormatting sqref="K34:K35">
+    <cfRule type="expression" dxfId="359" priority="357">
+      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K34 = "", $L36 = "", $M36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="358" priority="358">
+      <formula>AND($A31="begin repeat", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:K35">
+    <cfRule type="expression" dxfId="357" priority="359">
+      <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K34 = "", $L36 = "", $M36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="expression" dxfId="356" priority="360">
+      <formula>AND($A31="begin group", NOT($B31 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C24 C20 C31:C33">
+    <cfRule type="expression" dxfId="355" priority="361">
+      <formula>AND($C20 = "", $A20 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C24 C32:C33 C20">
+    <cfRule type="expression" dxfId="354" priority="362">
+      <formula>AND($A20="end repeat", $B20 = "", $C20 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C24 C32:C33 C20">
+    <cfRule type="expression" dxfId="353" priority="363">
+      <formula>AND($A20="end group", $B20 = "", $C20 = "", $D20 = "", $E20 = "", $F20 = "", $G20 = "", $H20 = "", $C20 = "", $J20 = "", $K20 = "", $L20 = "", $M20 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:K35 F34:J37 A65:K66 A34:C37 F63:F64 H63:K64 B67:D68 F67:I68 K67:K68">
+    <cfRule type="containsText" dxfId="352" priority="364" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C37">
+    <cfRule type="expression" dxfId="351" priority="365">
+      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C37 F34:J37">
+    <cfRule type="expression" dxfId="350" priority="366">
+      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:K35 F34:J37 A65:J66 A34:C37 F63:F64 H63:J64 B67:D68 F67:I68">
+    <cfRule type="cellIs" dxfId="349" priority="367" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="expression" dxfId="359" priority="409">
-      <formula>AND(AND(NOT($A43 = "end group"), NOT($A43 = "end repeat"), NOT($A43 = "")), $B43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:C41">
-    <cfRule type="expression" dxfId="358" priority="412">
-      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:C41 F38:J41">
-    <cfRule type="expression" dxfId="357" priority="413">
-      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="containsText" dxfId="356" priority="426" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" dxfId="355" priority="427" operator="equal">
+  <conditionalFormatting sqref="I39">
+    <cfRule type="expression" dxfId="348" priority="370">
+      <formula>AND(AND(NOT($A39 = "end group"), NOT($A39 = "end repeat"), NOT($A39 = "")), $B39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C37">
+    <cfRule type="expression" dxfId="347" priority="373">
+      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:C37 F34:J37">
+    <cfRule type="expression" dxfId="346" priority="374">
+      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="containsText" dxfId="345" priority="387" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="344" priority="388" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="containsText" dxfId="354" priority="434" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="353" priority="435">
-      <formula>AND($A60="begin group", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="352" priority="436">
-      <formula>AND($A60="end group", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="351" priority="437" operator="equal">
+  <conditionalFormatting sqref="E56">
+    <cfRule type="containsText" dxfId="343" priority="395" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="342" priority="396">
+      <formula>AND($A56="begin group", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="341" priority="397">
+      <formula>AND($A56="end group", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="340" priority="398" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="350" priority="438">
-      <formula>AND($A60="begin repeat", NOT($B60 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E60">
-    <cfRule type="expression" dxfId="349" priority="439">
-      <formula>AND($A60="end repeat", $B60 = "", $C60 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E63">
-    <cfRule type="containsText" dxfId="348" priority="446" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E61:E63">
-    <cfRule type="cellIs" dxfId="347" priority="449" operator="equal">
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="339" priority="399">
+      <formula>AND($A56="begin repeat", NOT($B56 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="expression" dxfId="338" priority="400">
+      <formula>AND($A56="end repeat", $B56 = "", $C56 = "", $D56 = "", $E56 = "", $F56 = "", $G56 = "", $H56 = "", $I56 = "", $J56 = "", $K56 = "", $L56 = "", $M56 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E59">
+    <cfRule type="containsText" dxfId="337" priority="407" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:E59">
+    <cfRule type="cellIs" dxfId="336" priority="410" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="containsText" dxfId="346" priority="456" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="cellIs" dxfId="345" priority="457" operator="equal">
+  <conditionalFormatting sqref="E62">
+    <cfRule type="containsText" dxfId="335" priority="417" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="334" priority="418" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="containsText" dxfId="344" priority="460" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="cellIs" dxfId="343" priority="463" operator="equal">
+  <conditionalFormatting sqref="E63">
+    <cfRule type="containsText" dxfId="333" priority="421" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="332" priority="424" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="containsText" dxfId="331" priority="427" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="330" priority="430" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="containsText" dxfId="329" priority="445" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67:E68">
+    <cfRule type="cellIs" dxfId="328" priority="448" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="containsText" dxfId="327" priority="457" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="326" priority="460" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="containsText" dxfId="325" priority="475" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="cellIs" dxfId="324" priority="478" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="containsText" dxfId="342" priority="466" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="323" priority="481" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="341" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="484" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:E72">
-    <cfRule type="containsText" dxfId="340" priority="484" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71:E72">
-    <cfRule type="cellIs" dxfId="339" priority="487" operator="equal">
+  <conditionalFormatting sqref="E71">
+    <cfRule type="containsText" dxfId="321" priority="487" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="cellIs" dxfId="320" priority="490" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="containsText" dxfId="319" priority="493" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="cellIs" dxfId="318" priority="496" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="containsText" dxfId="338" priority="496" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="317" priority="499" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="337" priority="499" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="502" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="containsText" dxfId="336" priority="514" operator="containsText" text="calculate"/>
+    <cfRule type="containsText" dxfId="315" priority="505" operator="containsText" text="calculate"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="335" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="508" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="containsText" dxfId="334" priority="520" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="333" priority="523" operator="equal">
+  <conditionalFormatting sqref="E75">
+    <cfRule type="containsText" dxfId="313" priority="511" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="cellIs" dxfId="312" priority="514" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="containsText" dxfId="332" priority="526" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="331" priority="529" operator="equal">
+  <conditionalFormatting sqref="A78:D79 A80:B81 D80:D81 A90:B91 D90:D91 A98:C98 C90">
+    <cfRule type="containsText" dxfId="311" priority="535" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90:B91 D90:D91 A98:C98 C90">
+    <cfRule type="expression" dxfId="310" priority="536">
+      <formula>AND($A90="begin group", NOT($B90 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90">
+    <cfRule type="expression" dxfId="309" priority="537">
+      <formula>AND($A90="end group", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78:D79 A80:B81 D80:D81 A90:B91 D90:D91 A98:C98 C90">
+    <cfRule type="cellIs" dxfId="308" priority="538" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="containsText" dxfId="330" priority="532" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="329" priority="535" operator="equal">
+  <conditionalFormatting sqref="A90:B91 D90:D91 A98:C98 C90">
+    <cfRule type="expression" dxfId="307" priority="544">
+      <formula>AND($A90="begin repeat", NOT($B90 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90">
+    <cfRule type="expression" dxfId="306" priority="545">
+      <formula>AND($A90="end repeat", $B90 = "", $C90 = "", $D90 = "", $E90 = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101:E102 E88:E89 E78:E79 E82">
+    <cfRule type="expression" dxfId="305" priority="552">
+      <formula>AND($E78 = "", $A78 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101:E102 E88:E89 E78:E79 E82">
+    <cfRule type="expression" dxfId="304" priority="553">
+      <formula>AND($A78="end repeat", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $E78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101:E102 E88:E89 E78:E79 E82">
+    <cfRule type="expression" dxfId="303" priority="554">
+      <formula>AND($A78="end group", $B78 = "", $C78 = "", $D78 = "", $E78 = "", $F78 = "", $G78 = "", $H78 = "", $E78 = "", $J78 = "", $K78 = "", $L78 = "", $M78 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="containsText" dxfId="302" priority="555" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D37">
+    <cfRule type="containsText" dxfId="301" priority="306" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D37">
+    <cfRule type="expression" dxfId="300" priority="307">
+      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D37">
+    <cfRule type="expression" dxfId="299" priority="308">
+      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D37">
+    <cfRule type="cellIs" dxfId="298" priority="309" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="containsText" dxfId="328" priority="538" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="cellIs" dxfId="327" priority="541" operator="equal">
+  <conditionalFormatting sqref="D34:D37">
+    <cfRule type="expression" dxfId="297" priority="310">
+      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D37">
+    <cfRule type="expression" dxfId="296" priority="311">
+      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E37">
+    <cfRule type="containsText" dxfId="295" priority="312" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E37">
+    <cfRule type="expression" dxfId="294" priority="313">
+      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="expression" dxfId="293" priority="314">
+      <formula>AND($A37="end group", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E37">
+    <cfRule type="cellIs" dxfId="292" priority="315" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="containsText" dxfId="326" priority="544" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="325" priority="547" operator="equal">
+  <conditionalFormatting sqref="E34:E37">
+    <cfRule type="expression" dxfId="291" priority="316">
+      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="expression" dxfId="290" priority="317">
+      <formula>AND($A37="end repeat", $B37 = "", $C37 = "", $D37 = "", $E37 = "", $F37 = "", $G37 = "", $H37 = "", $I37 = "", $J37 = "", $K37 = "", $L37 = "", $M37 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="289" priority="318">
+      <formula>AND($A36="end group", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K34 = "", $L36 = "", $M36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E35">
+    <cfRule type="expression" dxfId="288" priority="319">
+      <formula>AND($A34="end group", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", #REF! = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="expression" dxfId="287" priority="320">
+      <formula>AND($A36="end repeat", $B36 = "", $C36 = "", $D36 = "", $E36 = "", $F36 = "", $G36 = "", $H36 = "", $I36 = "", $J36 = "", $K34 = "", $L36 = "", $M36 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34:E35">
+    <cfRule type="expression" dxfId="286" priority="321">
+      <formula>AND($A34="end repeat", $B34 = "", $C34 = "", $D34 = "", $E34 = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", #REF! = "", $L34 = "", $M34 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63">
+    <cfRule type="containsText" dxfId="285" priority="300" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63">
+    <cfRule type="cellIs" dxfId="284" priority="303" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="containsText" dxfId="324" priority="550" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="323" priority="553" operator="equal">
+  <conditionalFormatting sqref="G64">
+    <cfRule type="containsText" dxfId="283" priority="294" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G64">
+    <cfRule type="cellIs" dxfId="282" priority="297" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82:D83 A84:B85 D84:D85 A94:B95 D94:D95 A102:C102 C94">
-    <cfRule type="containsText" dxfId="322" priority="574" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B95 D94:D95 A102:C102 C94">
-    <cfRule type="expression" dxfId="321" priority="575">
-      <formula>AND($A94="begin group", NOT($B94 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="expression" dxfId="320" priority="576">
-      <formula>AND($A94="end group", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82:D83 A84:B85 D84:D85 A94:B95 D94:D95 A102:C102 C94">
-    <cfRule type="cellIs" dxfId="319" priority="577" operator="equal">
+  <conditionalFormatting sqref="A67:A68">
+    <cfRule type="containsText" dxfId="281" priority="287" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A67:A68">
+    <cfRule type="cellIs" dxfId="280" priority="290" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A94:B95 D94:D95 A102:C102 C94">
-    <cfRule type="expression" dxfId="318" priority="583">
-      <formula>AND($A94="begin repeat", NOT($B94 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="expression" dxfId="317" priority="584">
-      <formula>AND($A94="end repeat", $B94 = "", $C94 = "", $D94 = "", $E94 = "", $F94 = "", $G94 = "", $H94 = "", $I94 = "", $J94 = "", $K94 = "", $L94 = "", $M94 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105:E106 E92:E93 E82:E83 E86">
-    <cfRule type="expression" dxfId="316" priority="591">
-      <formula>AND($E82 = "", $A82 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105:E106 E92:E93 E82:E83 E86">
-    <cfRule type="expression" dxfId="315" priority="592">
-      <formula>AND($A82="end repeat", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $E82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E105:E106 E92:E93 E82:E83 E86">
-    <cfRule type="expression" dxfId="314" priority="593">
-      <formula>AND($A82="end group", $B82 = "", $C82 = "", $D82 = "", $E82 = "", $F82 = "", $G82 = "", $H82 = "", $E82 = "", $J82 = "", $K82 = "", $L82 = "", $M82 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E83">
-    <cfRule type="containsText" dxfId="313" priority="594" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D41">
-    <cfRule type="containsText" dxfId="312" priority="345" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D41">
-    <cfRule type="expression" dxfId="311" priority="346">
-      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D41">
-    <cfRule type="expression" dxfId="310" priority="347">
-      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D41">
-    <cfRule type="cellIs" dxfId="309" priority="348" operator="equal">
+  <conditionalFormatting sqref="A67:A68">
+    <cfRule type="cellIs" dxfId="279" priority="291" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67:J68">
+    <cfRule type="containsText" dxfId="278" priority="281" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67:J68">
+    <cfRule type="cellIs" dxfId="277" priority="284" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D41">
-    <cfRule type="expression" dxfId="308" priority="349">
-      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D41">
-    <cfRule type="expression" dxfId="307" priority="350">
-      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", $K38 = "", $L38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E41">
-    <cfRule type="containsText" dxfId="306" priority="351" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E41">
-    <cfRule type="expression" dxfId="305" priority="352">
-      <formula>AND($A38="begin group", NOT($B38 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="304" priority="353">
-      <formula>AND($A41="end group", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E41">
-    <cfRule type="cellIs" dxfId="303" priority="354" operator="equal">
+  <conditionalFormatting sqref="A42:F42 I42:N42">
+    <cfRule type="expression" dxfId="276" priority="652">
+      <formula>AND($A42="end group", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", #REF! = "", #REF! = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:N41">
+    <cfRule type="expression" dxfId="275" priority="654">
+      <formula>AND($A39="end group", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G40 = "", $H40 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:F42 I42:N42">
+    <cfRule type="expression" dxfId="274" priority="666">
+      <formula>AND($A42="end repeat", $B42 = "", $C42 = "", $D42 = "", $E42 = "", $F42 = "", #REF! = "", #REF! = "", $I42 = "", $J42 = "", $K42 = "", $L42 = "", $M42 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:N41">
+    <cfRule type="expression" dxfId="273" priority="668">
+      <formula>AND($A39="end repeat", $B39 = "", $C39 = "", $D39 = "", $E39 = "", $F39 = "", $G40 = "", $H40 = "", $I39 = "", $J39 = "", $K39 = "", $L39 = "", $M39 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:G42">
+    <cfRule type="expression" dxfId="272" priority="275">
+      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:G42">
+    <cfRule type="expression" dxfId="271" priority="276">
+      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:G42">
+    <cfRule type="expression" dxfId="270" priority="277">
+      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:G42">
+    <cfRule type="expression" dxfId="269" priority="278">
+      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:G42">
+    <cfRule type="containsText" dxfId="268" priority="279" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40:G42">
+    <cfRule type="cellIs" dxfId="267" priority="280" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E41">
-    <cfRule type="expression" dxfId="302" priority="355">
-      <formula>AND($A38="begin repeat", NOT($B38 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="expression" dxfId="301" priority="356">
-      <formula>AND($A41="end repeat", $B41 = "", $C41 = "", $D41 = "", $E41 = "", $F41 = "", $G41 = "", $H41 = "", $I41 = "", $J41 = "", $K41 = "", $L41 = "", $M41 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="300" priority="357">
-      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K38 = "", $L40 = "", $M40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E39">
-    <cfRule type="expression" dxfId="299" priority="358">
-      <formula>AND($A38="end group", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", #REF! = "", $L38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="expression" dxfId="298" priority="359">
-      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K38 = "", $L40 = "", $M40 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:E39">
-    <cfRule type="expression" dxfId="297" priority="360">
-      <formula>AND($A38="end repeat", $B38 = "", $C38 = "", $D38 = "", $E38 = "", $F38 = "", $G38 = "", $H38 = "", $I38 = "", $J38 = "", #REF! = "", $L38 = "", $M38 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="containsText" dxfId="296" priority="339" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G67">
-    <cfRule type="cellIs" dxfId="295" priority="342" operator="equal">
+  <conditionalFormatting sqref="H40:H42">
+    <cfRule type="expression" dxfId="266" priority="268">
+      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:H42">
+    <cfRule type="expression" dxfId="265" priority="269">
+      <formula>AND($A40="end group", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:H42">
+    <cfRule type="expression" dxfId="264" priority="270">
+      <formula>AND(NOT($G40 = ""), $H40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:H42">
+    <cfRule type="expression" dxfId="263" priority="271">
+      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:H42">
+    <cfRule type="expression" dxfId="262" priority="272">
+      <formula>AND($A40="end repeat", $B40 = "", $C40 = "", $D40 = "", $E40 = "", $F40 = "", $G40 = "", $H40 = "", $I40 = "", $J40 = "", $K40 = "", $L40 = "", $M40 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:H42">
+    <cfRule type="containsText" dxfId="261" priority="273" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40:H42">
+    <cfRule type="cellIs" dxfId="260" priority="274" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G68">
-    <cfRule type="containsText" dxfId="294" priority="333" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G68">
-    <cfRule type="cellIs" dxfId="293" priority="336" operator="equal">
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="259" priority="813">
+      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="258" priority="815">
+      <formula>AND($A23="end group", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="257" priority="825">
+      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $C25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="256" priority="827">
+      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="255" priority="829">
+      <formula>AND($A23="end repeat", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $I23 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="254" priority="840">
+      <formula>AND($C25 = "", $A23 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="253" priority="842">
+      <formula>AND($A23="end repeat", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C25 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="expression" dxfId="252" priority="844">
+      <formula>AND($A23="end group", $B23 = "", $C25 = "", $D23 = "", $E23 = "", $F23 = "", $G23 = "", $H23 = "", $C25 = "", $J23 = "", $K23 = "", $L23 = "", $M23 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="251" priority="1088">
+      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="250" priority="1090">
+      <formula>AND($A25="end group", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="249" priority="1092">
+      <formula>AND(AND(NOT($A25 = "end group"), NOT($A25 = "end repeat"), NOT($A25 = "")), $C30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="248" priority="1094">
+      <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="247" priority="1096">
+      <formula>AND($A25="end repeat", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="246" priority="1098">
+      <formula>AND($C30 = "", $A25 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="245" priority="1100">
+      <formula>AND($A25="end repeat", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C30 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="244" priority="1102">
+      <formula>AND($A25="end group", $B25 = "", $C30 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C30 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="243" priority="1109">
+      <formula>AND($A25="begin group", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="242" priority="1115">
+      <formula>AND($A25="begin repeat", NOT($B25 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21 D21:N21">
+    <cfRule type="expression" dxfId="241" priority="1131">
+      <formula>AND($A21="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21 D21:N21">
+    <cfRule type="expression" dxfId="240" priority="1147">
+      <formula>AND($A21="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="239" priority="1175">
+      <formula>AND($A25="end group", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="238" priority="1176">
+      <formula>AND(AND(NOT($A25 = "end group"), NOT($A25 = "end repeat"), NOT($A25 = "")), $C21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="237" priority="1177">
+      <formula>AND($A25="end repeat", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="236" priority="1178">
+      <formula>AND($C21 = "", $A25 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="235" priority="1179">
+      <formula>AND($A25="end repeat", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C21 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="234" priority="1180">
+      <formula>AND($A25="end group", $B25 = "", $C21 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $C21 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="233" priority="247" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="containsText" dxfId="232" priority="245" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="231" priority="246" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:A72">
-    <cfRule type="containsText" dxfId="292" priority="326" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:A72">
-    <cfRule type="cellIs" dxfId="291" priority="329" operator="equal">
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="230" priority="248">
+      <formula>AND($A21="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="229" priority="249">
+      <formula>AND($A21="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="containsText" dxfId="228" priority="238" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="cellIs" dxfId="227" priority="240" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="cellIs" dxfId="226" priority="239" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71:A72">
-    <cfRule type="cellIs" dxfId="290" priority="330" operator="equal">
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="225" priority="1199">
+      <formula>AND($A27="end group", $B27 = "", $C32 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="expression" dxfId="224" priority="1200">
+      <formula>AND($A27="end repeat", $B27 = "", $C32 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="223" priority="1204">
+      <formula>AND($A30="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30 D30:N30">
+    <cfRule type="expression" dxfId="222" priority="1205">
+      <formula>AND(#REF!="begin group", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="expression" dxfId="221" priority="1208">
+      <formula>AND($I29 = "", $A30 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="expression" dxfId="220" priority="1209">
+      <formula>AND($I30 = "", #REF! = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="219" priority="1211">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="218" priority="1215">
+      <formula>AND($A30="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30 D30:N30">
+    <cfRule type="expression" dxfId="217" priority="1216">
+      <formula>AND(#REF!="begin repeat", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:C21">
+    <cfRule type="expression" dxfId="216" priority="1230">
+      <formula>AND($A30="begin group", NOT($B21 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:N29">
+    <cfRule type="expression" dxfId="215" priority="1231">
+      <formula>AND($A30="begin group", NOT($B21 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:C21">
+    <cfRule type="expression" dxfId="214" priority="1232">
+      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $B21 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:C21">
+    <cfRule type="expression" dxfId="213" priority="1233">
+      <formula>AND($A30="begin repeat", NOT($B21 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:N29">
+    <cfRule type="expression" dxfId="212" priority="1234">
+      <formula>AND($A30="begin repeat", NOT($B21 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="211" priority="233">
+      <formula>AND($A30="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="210" priority="234">
+      <formula>AND($A30="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="209" priority="231">
+      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="expression" dxfId="208" priority="232">
+      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30">
+    <cfRule type="expression" dxfId="207" priority="229">
+      <formula>AND($A30="begin group", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30">
+    <cfRule type="expression" dxfId="206" priority="230">
+      <formula>AND($A30="begin repeat", NOT($B29 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30">
+    <cfRule type="expression" dxfId="205" priority="227">
+      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30">
+    <cfRule type="expression" dxfId="204" priority="228">
+      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="203" priority="1252">
+      <formula>AND($A31="end repeat", $B31 = "", $C31 = "", $D31 = "", $E30 = "", $F31 = "", $G31 = "", $H31 = "", $C31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="expression" dxfId="202" priority="1254">
+      <formula>AND($A31="end group", $B31 = "", $C31 = "", $D31 = "", $E30 = "", $F31 = "", $G31 = "", $H31 = "", $C31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60:B61 F60:J61">
+    <cfRule type="expression" dxfId="201" priority="1289">
+      <formula>AND($A60="end group", $B60 = "", #REF! = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="200" priority="1314">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="199" priority="1315">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="198" priority="1329">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="197" priority="1330">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C61 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="196" priority="1331">
+      <formula>AND(#REF!="end group", #REF! = "", $C61 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="containsText" dxfId="195" priority="221" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="cellIs" dxfId="194" priority="222" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:K35 E60:E61">
+    <cfRule type="expression" dxfId="193" priority="223">
+      <formula>AND($A36="begin repeat", NOT($B36 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:K35 E60:E61">
+    <cfRule type="expression" dxfId="192" priority="224">
+      <formula>AND($A36="begin group", NOT($B36 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="expression" dxfId="191" priority="225">
+      <formula>AND(#REF!="begin group", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60:E61">
+    <cfRule type="expression" dxfId="190" priority="226">
+      <formula>AND(#REF!="begin repeat", NOT($B60 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103:B951 A21 C21 A30:C30 B2:B17 B19:B25 B27:B28">
+    <cfRule type="expression" dxfId="189" priority="1346">
+      <formula>COUNTIF($B$2:$B$959,A2)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81 C91">
+    <cfRule type="expression" dxfId="188" priority="216">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81 C91">
+    <cfRule type="expression" dxfId="187" priority="217">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="expression" dxfId="186" priority="218">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="expression" dxfId="185" priority="219">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C81 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91 C81">
+    <cfRule type="expression" dxfId="184" priority="220">
+      <formula>AND(#REF!="end group", #REF! = "", $C81 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81">
+    <cfRule type="containsText" dxfId="183" priority="208" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81">
+    <cfRule type="cellIs" dxfId="182" priority="209" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81 E83">
+    <cfRule type="expression" dxfId="181" priority="212">
+      <formula>AND(#REF!="begin group", NOT($B80 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81 E83">
+    <cfRule type="expression" dxfId="180" priority="213">
+      <formula>AND(#REF!="begin repeat", NOT($B80 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="expression" dxfId="179" priority="196">
+      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C91 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="expression" dxfId="178" priority="197">
+      <formula>AND(#REF!="end repeat", #REF! = "", $C91 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90:E91">
+    <cfRule type="containsText" dxfId="177" priority="186" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90:E91">
+    <cfRule type="cellIs" dxfId="176" priority="187" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90:E91">
+    <cfRule type="expression" dxfId="175" priority="190">
+      <formula>AND(#REF!="begin group", NOT($B90 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90:E91">
+    <cfRule type="expression" dxfId="174" priority="191">
+      <formula>AND(#REF!="begin repeat", NOT($B90 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F99:N100 F98:H98 J98:N98 F92:N97 A92:C100">
+    <cfRule type="expression" dxfId="173" priority="1418">
+      <formula>AND($A92="end group", $B92 = "", $C92 = "", #REF! = "", $D92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F99:N100 F98:H98 J98:N98 F92:N97 A92:C100">
+    <cfRule type="expression" dxfId="172" priority="1423">
+      <formula>AND($A92="end repeat", $B92 = "", $C92 = "", #REF! = "", $D92 = "", $F92 = "", $G92 = "", $H92 = "", $I92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99:D100 D92:D97">
+    <cfRule type="expression" dxfId="171" priority="1429">
+      <formula>AND($D92 = "", $A92 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99:D100 D92:D97">
+    <cfRule type="expression" dxfId="170" priority="1431">
+      <formula>AND($A92="end repeat", $B92 = "", $C92 = "", #REF! = "", $D92 = "", $F92 = "", $G92 = "", $H92 = "", $D92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99:D100 D92:D97">
+    <cfRule type="expression" dxfId="169" priority="1433">
+      <formula>AND($A92="end group", $B92 = "", $C92 = "", #REF! = "", $D92 = "", $F92 = "", $G92 = "", $H92 = "", $D92 = "", $J92 = "", $K92 = "", $L92 = "", $M92 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28 C25">
+    <cfRule type="expression" dxfId="168" priority="1492">
+      <formula>AND($A25="end group", $B25 = "", $C31 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28 C25">
+    <cfRule type="expression" dxfId="167" priority="1494">
+      <formula>AND($A25="end repeat", $B25 = "", $C31 = "", $D25 = "", $E25 = "", $F25 = "", $G25 = "", $H25 = "", $I25 = "", $J25 = "", $K25 = "", $L25 = "", $M25 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="166" priority="1534">
+      <formula>AND($A30="end group", $B21 = "", $C34 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="expression" dxfId="165" priority="1535">
+      <formula>AND($A30="end repeat", $B21 = "", $C34 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="164" priority="1536">
+      <formula>AND($A40="begin group", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="163" priority="1537">
+      <formula>AND(AND(NOT($A40 = "end group"), NOT($A40 = "end repeat"), NOT($A40 = "")), $B30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:C30">
+    <cfRule type="expression" dxfId="162" priority="1538">
+      <formula>AND($A40="begin repeat", NOT($B30 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="161" priority="1541">
+      <formula>AND(#REF!="end group", $B30 = "", $C34 = "", $D30 = "", #REF! = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="160" priority="1542">
+      <formula>AND(#REF!="end repeat", $B30 = "", $C34 = "", $D30 = "", #REF! = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91:N91 A91:B91 D91 D61 F81:N81 A81:B81 D81">
+    <cfRule type="expression" dxfId="159" priority="1556">
+      <formula>AND($A61="end group", $B61 = "", #REF! = "", $D61 = "", $E61 = "", $F61 = "", $G61 = "", $H61 = "", $I61 = "", $J61 = "", $K61 = "", $L61 = "", $M61 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:N90 A90:B90 D90 D60 F80:N80 A80:B80 D80">
+    <cfRule type="expression" dxfId="158" priority="1557">
+      <formula>AND($A60="end group", $B60 = "", $C61 = "", $D60 = "", $E60 = "", $F60 = "", $G60 = "", $H60 = "", $I60 = "", $J60 = "", $K60 = "", $L60 = "", $M60 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:N90 A90:B90 D90 F80:N80 A80:B80 D80">
+    <cfRule type="expression" dxfId="157" priority="1560">
+      <formula>AND($A80="end repeat", $B80 = "", $C81 = "", $D80 = "", $E80 = "", $F80 = "", $G80 = "", $H80 = "", $I80 = "", $J80 = "", $K80 = "", $L80 = "", $M80 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91:N91 A91:B91 D91 F81:N81 A81:B81 D81">
+    <cfRule type="expression" dxfId="156" priority="1561">
+      <formula>AND($A81="end repeat", $B81 = "", #REF! = "", $D81 = "", $E81 = "", $F81 = "", $G81 = "", $H81 = "", $I81 = "", $J81 = "", $K81 = "", $L81 = "", $M81 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="155" priority="178">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="expression" dxfId="154" priority="179">
+      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="cellIs" dxfId="153" priority="180" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J71:J72">
-    <cfRule type="containsText" dxfId="289" priority="320" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71:J72">
-    <cfRule type="cellIs" dxfId="288" priority="323" operator="equal">
+  <conditionalFormatting sqref="H19">
+    <cfRule type="expression" dxfId="152" priority="181">
+      <formula>AND(NOT($G19 = ""), $H19 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="151" priority="1568">
+      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="150" priority="1571">
+      <formula>AND($I20 = "", $A19 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="149" priority="1573">
+      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="containsText" dxfId="148" priority="170" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="expression" dxfId="147" priority="171">
+      <formula>AND($A14="begin group", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="cellIs" dxfId="146" priority="172" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A46:F46 I46:N46">
-    <cfRule type="expression" dxfId="287" priority="691">
-      <formula>AND($A46="end group", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", #REF! = "", #REF! = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:N45">
-    <cfRule type="expression" dxfId="286" priority="693">
-      <formula>AND($A43="end group", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G44 = "", $H44 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:F46 I46:N46">
-    <cfRule type="expression" dxfId="285" priority="705">
-      <formula>AND($A46="end repeat", $B46 = "", $C46 = "", $D46 = "", $E46 = "", $F46 = "", #REF! = "", #REF! = "", $I46 = "", $J46 = "", $K46 = "", $L46 = "", $M46 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:N45">
-    <cfRule type="expression" dxfId="284" priority="707">
-      <formula>AND($A43="end repeat", $B43 = "", $C43 = "", $D43 = "", $E43 = "", $F43 = "", $G44 = "", $H44 = "", $I43 = "", $J43 = "", $K43 = "", $L43 = "", $M43 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44:G46">
-    <cfRule type="expression" dxfId="283" priority="314">
-      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44:G46">
-    <cfRule type="expression" dxfId="282" priority="315">
-      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44:G46">
-    <cfRule type="expression" dxfId="281" priority="316">
-      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44:G46">
-    <cfRule type="expression" dxfId="280" priority="317">
-      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44:G46">
-    <cfRule type="containsText" dxfId="279" priority="318" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44:G46">
-    <cfRule type="cellIs" dxfId="278" priority="319" operator="equal">
+  <conditionalFormatting sqref="A14:H14 J14:N14">
+    <cfRule type="expression" dxfId="145" priority="173">
+      <formula>AND($A14="begin repeat", NOT($B14 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="144" priority="165">
+      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $C14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="143" priority="166">
+      <formula>AND(AND(NOT($A14 = "end group"), NOT($A14 = "end repeat"), NOT($A14 = "")), $B14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="cellIs" dxfId="142" priority="167" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="expression" dxfId="141" priority="168">
+      <formula>AND(NOT($G14 = ""), $H14 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="containsText" dxfId="140" priority="161" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="expression" dxfId="139" priority="162">
+      <formula>AND($A15="begin group", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="cellIs" dxfId="138" priority="163" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44:H46">
-    <cfRule type="expression" dxfId="277" priority="307">
-      <formula>AND($A44="begin group", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44:H46">
-    <cfRule type="expression" dxfId="276" priority="308">
-      <formula>AND($A44="end group", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44:H46">
-    <cfRule type="expression" dxfId="275" priority="309">
-      <formula>AND(NOT($G44 = ""), $H44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44:H46">
-    <cfRule type="expression" dxfId="274" priority="310">
-      <formula>AND($A44="begin repeat", NOT($B44 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44:H46">
-    <cfRule type="expression" dxfId="273" priority="311">
-      <formula>AND($A44="end repeat", $B44 = "", $C44 = "", $D44 = "", $E44 = "", $F44 = "", $G44 = "", $H44 = "", $I44 = "", $J44 = "", $K44 = "", $L44 = "", $M44 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44:H46">
-    <cfRule type="containsText" dxfId="272" priority="312" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44:H46">
-    <cfRule type="cellIs" dxfId="271" priority="313" operator="equal">
+  <conditionalFormatting sqref="A15:H15 J15:N15">
+    <cfRule type="expression" dxfId="137" priority="164">
+      <formula>AND($A15="begin repeat", NOT($B15 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="expression" dxfId="136" priority="156">
+      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $C15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="expression" dxfId="135" priority="157">
+      <formula>AND(AND(NOT($A15 = "end group"), NOT($A15 = "end repeat"), NOT($A15 = "")), $B15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="cellIs" dxfId="134" priority="158" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="expression" dxfId="133" priority="159">
+      <formula>AND(NOT($G15 = ""), $H15 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="containsText" dxfId="132" priority="152" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="expression" dxfId="131" priority="153">
+      <formula>AND($A16="begin group", NOT($B16 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="cellIs" dxfId="130" priority="154" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="270" priority="852">
-      <formula>AND($A27="begin group", NOT($B27 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="269" priority="854">
-      <formula>AND($A27="end group", $B27 = "", $C29 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="268" priority="864">
-      <formula>AND(AND(NOT($A27 = "end group"), NOT($A27 = "end repeat"), NOT($A27 = "")), $C29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="267" priority="866">
-      <formula>AND($A27="begin repeat", NOT($B27 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="266" priority="868">
-      <formula>AND($A27="end repeat", $B27 = "", $C29 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $I27 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="265" priority="879">
-      <formula>AND($C29 = "", $A27 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="264" priority="881">
-      <formula>AND($A27="end repeat", $B27 = "", $C29 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $C29 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="263" priority="883">
-      <formula>AND($A27="end group", $B27 = "", $C29 = "", $D27 = "", $E27 = "", $F27 = "", $G27 = "", $H27 = "", $C29 = "", $J27 = "", $K27 = "", $L27 = "", $M27 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="262" priority="1127">
-      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="261" priority="1129">
-      <formula>AND($A29="end group", $B29 = "", $C34 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="260" priority="1131">
-      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $C34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="259" priority="1133">
-      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="258" priority="1135">
-      <formula>AND($A29="end repeat", $B29 = "", $C34 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="257" priority="1137">
-      <formula>AND($C34 = "", $A29 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="256" priority="1139">
-      <formula>AND($A29="end repeat", $B29 = "", $C34 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $C34 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="255" priority="1141">
-      <formula>AND($A29="end group", $B29 = "", $C34 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $C34 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="254" priority="1148">
-      <formula>AND($A29="begin group", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="253" priority="1154">
-      <formula>AND($A29="begin repeat", NOT($B29 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25 D25:N25">
-    <cfRule type="expression" dxfId="252" priority="1170">
-      <formula>AND($A25="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25 D25:N25">
-    <cfRule type="expression" dxfId="251" priority="1186">
-      <formula>AND($A25="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="250" priority="1214">
-      <formula>AND($A29="end group", $B29 = "", $C25 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="249" priority="1215">
-      <formula>AND(AND(NOT($A29 = "end group"), NOT($A29 = "end repeat"), NOT($A29 = "")), $C25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="248" priority="1216">
-      <formula>AND($A29="end repeat", $B29 = "", $C25 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="247" priority="1217">
-      <formula>AND($C25 = "", $A29 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="246" priority="1218">
-      <formula>AND($A29="end repeat", $B29 = "", $C25 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $C25 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="245" priority="1219">
-      <formula>AND($A29="end group", $B29 = "", $C25 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $C25 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="244" priority="286" operator="equal">
+  <conditionalFormatting sqref="A16:H16 J16:N16">
+    <cfRule type="expression" dxfId="129" priority="155">
+      <formula>AND($A16="begin repeat", NOT($B16 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="expression" dxfId="128" priority="147">
+      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $C16 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="expression" dxfId="127" priority="148">
+      <formula>AND(AND(NOT($A16 = "end group"), NOT($A16 = "end repeat"), NOT($A16 = "")), $B16 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="cellIs" dxfId="126" priority="149" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="243" priority="284" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="242" priority="285" operator="equal">
+  <conditionalFormatting sqref="H16">
+    <cfRule type="expression" dxfId="125" priority="150">
+      <formula>AND(NOT($G16 = ""), $H16 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:H17 J17:N17">
+    <cfRule type="containsText" dxfId="124" priority="143" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:H17 J17:N17">
+    <cfRule type="cellIs" dxfId="123" priority="145" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="241" priority="287">
-      <formula>AND($A25="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="240" priority="288">
-      <formula>AND($A25="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:C32">
-    <cfRule type="containsText" dxfId="239" priority="277" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:C32">
-    <cfRule type="cellIs" dxfId="238" priority="279" operator="equal">
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="122" priority="140" operator="equal">
       <formula>"hidden"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:C32">
-    <cfRule type="cellIs" dxfId="237" priority="278" operator="equal">
+  <conditionalFormatting sqref="L49:N49 A49:J49">
+    <cfRule type="containsText" dxfId="121" priority="105" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:J49">
+    <cfRule type="expression" dxfId="120" priority="106">
+      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:N49">
+    <cfRule type="expression" dxfId="119" priority="107">
+      <formula>AND($A49="end group", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:J49">
+    <cfRule type="cellIs" dxfId="118" priority="108" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="236" priority="1238">
-      <formula>AND($A31="end group", $B31 = "", $C36 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="235" priority="1239">
-      <formula>AND($A31="end repeat", $B31 = "", $C36 = "", $D31 = "", $E31 = "", $F31 = "", $G31 = "", $H31 = "", $I31 = "", $J31 = "", $K31 = "", $L31 = "", $M31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="234" priority="1243">
-      <formula>AND($A34="begin group", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34 D34:N34">
-    <cfRule type="expression" dxfId="233" priority="1244">
-      <formula>AND(#REF!="begin group", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="232" priority="1247">
-      <formula>AND($I33 = "", $A34 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="231" priority="1248">
-      <formula>AND($I34 = "", #REF! = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34">
-    <cfRule type="expression" dxfId="230" priority="1250">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $B34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="229" priority="1254">
-      <formula>AND($A34="begin repeat", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34 D34:N34">
-    <cfRule type="expression" dxfId="228" priority="1255">
-      <formula>AND(#REF!="begin repeat", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="227" priority="1269">
-      <formula>AND($A34="begin group", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:N33">
-    <cfRule type="expression" dxfId="226" priority="1270">
-      <formula>AND($A34="begin group", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="225" priority="1271">
-      <formula>AND(AND(NOT($A34 = "end group"), NOT($A34 = "end repeat"), NOT($A34 = "")), $B25 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:C25">
-    <cfRule type="expression" dxfId="224" priority="1272">
-      <formula>AND($A34="begin repeat", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33:N33">
-    <cfRule type="expression" dxfId="223" priority="1273">
-      <formula>AND($A34="begin repeat", NOT($B25 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C34">
-    <cfRule type="expression" dxfId="222" priority="272">
-      <formula>AND($A34="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C34">
-    <cfRule type="expression" dxfId="221" priority="273">
-      <formula>AND($A34="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="220" priority="270">
-      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="expression" dxfId="219" priority="271">
-      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:C34">
-    <cfRule type="expression" dxfId="218" priority="268">
-      <formula>AND($A34="begin group", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:C34">
-    <cfRule type="expression" dxfId="217" priority="269">
-      <formula>AND($A34="begin repeat", NOT($B33 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:C34">
-    <cfRule type="expression" dxfId="216" priority="266">
-      <formula>AND($A34="begin group", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B34:C34">
-    <cfRule type="expression" dxfId="215" priority="267">
-      <formula>AND($A34="begin repeat", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="214" priority="1291">
-      <formula>AND($A35="end repeat", $B35 = "", $C35 = "", $D35 = "", $E34 = "", $F35 = "", $G35 = "", $H35 = "", $C35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="213" priority="1293">
-      <formula>AND($A35="end group", $B35 = "", $C35 = "", $D35 = "", $E34 = "", $F35 = "", $G35 = "", $H35 = "", $C35 = "", $J35 = "", $K35 = "", $L35 = "", $M35 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A64:B65 F64:J65">
-    <cfRule type="expression" dxfId="212" priority="1328">
-      <formula>AND($A64="end group", $B64 = "", #REF! = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="211" priority="1353">
+  <conditionalFormatting sqref="I49">
+    <cfRule type="expression" dxfId="117" priority="109">
+      <formula>AND($I49 = "", $A49 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="expression" dxfId="116" priority="110">
+      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $C49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="expression" dxfId="115" priority="111">
+      <formula>AND(AND(NOT($A49 = "end group"), NOT($A49 = "end repeat"), NOT($A49 = "")), $B49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="cellIs" dxfId="114" priority="112" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="expression" dxfId="113" priority="113">
+      <formula>AND(NOT($G49 = ""), $H49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:J49">
+    <cfRule type="expression" dxfId="112" priority="114">
+      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:N49">
+    <cfRule type="expression" dxfId="111" priority="115">
+      <formula>AND($A49="end repeat", $B49 = "", $C49 = "", $D49 = "", $E49 = "", $F49 = "", $G49 = "", $H49 = "", $I49 = "", $J49 = "", $K49 = "", $L49 = "", $M49 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49">
+    <cfRule type="containsText" dxfId="110" priority="116" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:N49">
+    <cfRule type="expression" dxfId="109" priority="117">
+      <formula>AND($A49="begin group", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:N49">
+    <cfRule type="cellIs" dxfId="108" priority="118" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K49:N49">
+    <cfRule type="expression" dxfId="107" priority="119">
+      <formula>AND($A49="begin repeat", NOT($B49 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50:N50 A50:J50">
+    <cfRule type="containsText" dxfId="106" priority="89" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:J50">
+    <cfRule type="expression" dxfId="105" priority="90">
+      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:N50">
+    <cfRule type="expression" dxfId="104" priority="91">
+      <formula>AND($A50="end group", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:J50">
+    <cfRule type="cellIs" dxfId="103" priority="92" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="expression" dxfId="102" priority="93">
+      <formula>AND($I50 = "", $A50 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="101" priority="94">
+      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $C50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
+    <cfRule type="expression" dxfId="100" priority="95">
+      <formula>AND(AND(NOT($A50 = "end group"), NOT($A50 = "end repeat"), NOT($A50 = "")), $B50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="cellIs" dxfId="99" priority="96" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="expression" dxfId="98" priority="97">
+      <formula>AND(NOT($G50 = ""), $H50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:J50">
+    <cfRule type="expression" dxfId="97" priority="98">
+      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:N50">
+    <cfRule type="expression" dxfId="96" priority="99">
+      <formula>AND($A50="end repeat", $B50 = "", $C50 = "", $D50 = "", $E50 = "", $F50 = "", $G50 = "", $H50 = "", $I50 = "", $J50 = "", $K50 = "", $L50 = "", $M50 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50">
+    <cfRule type="containsText" dxfId="95" priority="100" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:N50">
+    <cfRule type="expression" dxfId="94" priority="101">
+      <formula>AND($A50="begin group", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:N50">
+    <cfRule type="cellIs" dxfId="93" priority="102" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:N50">
+    <cfRule type="expression" dxfId="92" priority="103">
+      <formula>AND($A50="begin repeat", NOT($B50 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L51:N51 A51:J51">
+    <cfRule type="containsText" dxfId="91" priority="73" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:J51">
+    <cfRule type="expression" dxfId="90" priority="74">
+      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:N51">
+    <cfRule type="expression" dxfId="89" priority="75">
+      <formula>AND($A51="end group", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:J51">
+    <cfRule type="cellIs" dxfId="88" priority="76" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
+    <cfRule type="expression" dxfId="87" priority="77">
+      <formula>AND($I51 = "", $A51 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51">
+    <cfRule type="expression" dxfId="86" priority="78">
+      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $C51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51">
+    <cfRule type="expression" dxfId="85" priority="79">
+      <formula>AND(AND(NOT($A51 = "end group"), NOT($A51 = "end repeat"), NOT($A51 = "")), $B51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="cellIs" dxfId="84" priority="80" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="expression" dxfId="83" priority="81">
+      <formula>AND(NOT($G51 = ""), $H51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:J51">
+    <cfRule type="expression" dxfId="82" priority="82">
+      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:N51">
+    <cfRule type="expression" dxfId="81" priority="83">
+      <formula>AND($A51="end repeat", $B51 = "", $C51 = "", $D51 = "", $E51 = "", $F51 = "", $G51 = "", $H51 = "", $I51 = "", $J51 = "", $K51 = "", $L51 = "", $M51 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51">
+    <cfRule type="containsText" dxfId="80" priority="84" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:N51">
+    <cfRule type="expression" dxfId="79" priority="85">
+      <formula>AND($A51="begin group", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:N51">
+    <cfRule type="cellIs" dxfId="78" priority="86" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K51:N51">
+    <cfRule type="expression" dxfId="77" priority="87">
+      <formula>AND($A51="begin repeat", NOT($B51 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I98">
+    <cfRule type="containsText" dxfId="76" priority="59" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I98">
+    <cfRule type="expression" dxfId="75" priority="60">
+      <formula>AND($A98="begin group", NOT($B98 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I98">
+    <cfRule type="cellIs" dxfId="74" priority="61" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I98">
+    <cfRule type="expression" dxfId="73" priority="62">
+      <formula>AND($I98 = "", $A98 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I98">
+    <cfRule type="expression" dxfId="72" priority="63">
+      <formula>AND($A98="begin repeat", NOT($B98 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I98">
+    <cfRule type="expression" dxfId="71" priority="64">
+      <formula>AND($A98="end group", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I98">
+    <cfRule type="expression" dxfId="70" priority="65">
+      <formula>AND($A98="end repeat", $B98 = "", $C98 = "", #REF! = "", $D98 = "", $F98 = "", $G98 = "", $H98 = "", $I98 = "", $J98 = "", $K98 = "", $L98 = "", $M98 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68">
+    <cfRule type="containsText" dxfId="69" priority="57" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J68">
+    <cfRule type="cellIs" dxfId="68" priority="58" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C28">
+    <cfRule type="expression" dxfId="67" priority="1629">
+      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C28">
+    <cfRule type="expression" dxfId="66" priority="1631">
+      <formula>AND($A24="end group", $B24 = "", $C27 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C28">
+    <cfRule type="expression" dxfId="65" priority="1633">
+      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $C27 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C28">
+    <cfRule type="expression" dxfId="64" priority="1635">
+      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C28">
+    <cfRule type="expression" dxfId="63" priority="1637">
+      <formula>AND($A24="end repeat", $B24 = "", $C27 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C28">
+    <cfRule type="expression" dxfId="62" priority="1639">
+      <formula>AND($C27 = "", $A24 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C28">
+    <cfRule type="expression" dxfId="61" priority="1641">
+      <formula>AND($A24="end repeat", $B24 = "", $C27 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C27 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C28">
+    <cfRule type="expression" dxfId="60" priority="1643">
+      <formula>AND($A24="end group", $B24 = "", $C27 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C27 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:N26">
+    <cfRule type="containsText" dxfId="59" priority="38" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B26 D26:N26">
+    <cfRule type="expression" dxfId="58" priority="39">
+      <formula>AND($A26="begin group", NOT($B26 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:N26">
+    <cfRule type="cellIs" dxfId="57" priority="40" operator="equal">
+      <formula>"note"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="expression" dxfId="56" priority="41">
+      <formula>AND($I26 = "", $A26 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="55" priority="42">
+      <formula>AND(AND(NOT($A26 = "end group"), NOT($A26 = "end repeat"), NOT($A26 = "")), $B26 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="cellIs" dxfId="54" priority="43" operator="equal">
+      <formula>"hidden"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="expression" dxfId="53" priority="44">
+      <formula>AND(NOT($G26 = ""), $H26 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B26 D26:N26">
+    <cfRule type="expression" dxfId="52" priority="45">
+      <formula>AND($A26="begin repeat", NOT($B26 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="51" priority="46">
+      <formula>AND($A24="end group", $B24 = "", $C26 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="50" priority="47">
+      <formula>AND(AND(NOT($A24 = "end group"), NOT($A24 = "end repeat"), NOT($A24 = "")), $C26 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="49" priority="48">
+      <formula>AND($A24="end repeat", $B24 = "", $C26 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $I24 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="48" priority="49">
+      <formula>AND($C26 = "", $A24 = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="47" priority="50">
+      <formula>AND($A24="end repeat", $B24 = "", $C26 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C26 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="46" priority="51">
+      <formula>AND($A24="end group", $B24 = "", $C26 = "", $D24 = "", $E24 = "", $F24 = "", $G24 = "", $H24 = "", $C26 = "", $J24 = "", $K24 = "", $L24 = "", $M24 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="45" priority="53">
+      <formula>AND($A26="end group", $B26 = "", $C32 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="44" priority="54">
+      <formula>AND($A26="end repeat", $B26 = "", $C32 = "", $D26 = "", $E26 = "", $F26 = "", $G26 = "", $H26 = "", $I26 = "", $J26 = "", $K26 = "", $L26 = "", $M26 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="43" priority="55">
+      <formula>AND($A24="begin group", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="42" priority="56">
+      <formula>AND($A24="begin repeat", NOT($B24 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="expression" dxfId="41" priority="1799">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="210" priority="1354">
+  <conditionalFormatting sqref="E90">
+    <cfRule type="expression" dxfId="40" priority="1801">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="209" priority="1368">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="208" priority="1369">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C65 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="207" priority="1370">
-      <formula>AND(#REF!="end group", #REF! = "", $C65 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65">
-    <cfRule type="containsText" dxfId="206" priority="260" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65">
-    <cfRule type="cellIs" dxfId="205" priority="261" operator="equal">
+  <conditionalFormatting sqref="E80:E81">
+    <cfRule type="expression" dxfId="39" priority="1857">
+      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E81">
+    <cfRule type="expression" dxfId="38" priority="1858">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="36" priority="26" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:K39 E64:E65">
-    <cfRule type="expression" dxfId="204" priority="262">
-      <formula>AND($A40="begin repeat", NOT($B40 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38:K39 E64:E65">
-    <cfRule type="expression" dxfId="203" priority="263">
-      <formula>AND($A40="begin group", NOT($B40 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65">
-    <cfRule type="expression" dxfId="202" priority="264">
-      <formula>AND(#REF!="begin group", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E64:E65">
-    <cfRule type="expression" dxfId="201" priority="265">
-      <formula>AND(#REF!="begin repeat", NOT($B64 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B107:B955 A25 C25 A34:C34 B2:B13 B23:B29 B31:B32 B18:B21">
-    <cfRule type="expression" dxfId="200" priority="1385">
-      <formula>COUNTIF($B$2:$B$963,A2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85 C95">
-    <cfRule type="expression" dxfId="199" priority="255">
+  <conditionalFormatting sqref="E83">
+    <cfRule type="expression" dxfId="35" priority="29">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C85 C95">
-    <cfRule type="expression" dxfId="198" priority="256">
+  <conditionalFormatting sqref="E83">
+    <cfRule type="expression" dxfId="34" priority="30">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="expression" dxfId="197" priority="257">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="expression" dxfId="196" priority="258">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C85 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C95 C85">
-    <cfRule type="expression" dxfId="195" priority="259">
-      <formula>AND(#REF!="end group", #REF! = "", $C85 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84:E85">
-    <cfRule type="containsText" dxfId="194" priority="247" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84:E85">
-    <cfRule type="cellIs" dxfId="193" priority="248" operator="equal">
+  <conditionalFormatting sqref="E86:E87">
+    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="calculate"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86:E87">
+    <cfRule type="cellIs" dxfId="32" priority="20" operator="equal">
       <formula>"note"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84:E85 E87">
-    <cfRule type="expression" dxfId="192" priority="251">
-      <formula>AND(#REF!="begin group", NOT($B84 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84:E85 E87">
-    <cfRule type="expression" dxfId="191" priority="252">
-      <formula>AND(#REF!="begin repeat", NOT($B84 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="expression" dxfId="190" priority="235">
-      <formula>AND(AND(NOT(#REF! = "end group"), NOT(#REF! = "end repeat"), NOT(#REF! = "")), $C95 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="expression" dxfId="189" priority="236">
-      <formula>AND(#REF!="end repeat", #REF! = "", $C95 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94:E95">
-    <cfRule type="containsText" dxfId="188" priority="225" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94:E95">
-    <cfRule type="cellIs" dxfId="187" priority="226" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94:E95">
-    <cfRule type="expression" dxfId="186" priority="229">
-      <formula>AND(#REF!="begin group", NOT($B94 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94:E95">
-    <cfRule type="expression" dxfId="185" priority="230">
-      <formula>AND(#REF!="begin repeat", NOT($B94 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F103:N104 F102:H102 J102:N102 F96:N101 A96:C104">
-    <cfRule type="expression" dxfId="184" priority="1457">
-      <formula>AND($A96="end group", $B96 = "", $C96 = "", #REF! = "", $D96 = "", $F96 = "", $G96 = "", $H96 = "", $I96 = "", $J96 = "", $K96 = "", $L96 = "", $M96 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F103:N104 F102:H102 J102:N102 F96:N101 A96:C104">
-    <cfRule type="expression" dxfId="183" priority="1462">
-      <formula>AND($A96="end repeat", $B96 = "", $C96 = "", #REF! = "", $D96 = "", $F96 = "", $G96 = "", $H96 = "", $I96 = "", $J96 = "", $K96 = "", $L96 = "", $M96 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D103:D104 D96:D101">
-    <cfRule type="expression" dxfId="182" priority="1468">
-      <formula>AND($D96 = "", $A96 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D103:D104 D96:D101">
-    <cfRule type="expression" dxfId="181" priority="1470">
-      <formula>AND($A96="end repeat", $B96 = "", $C96 = "", #REF! = "", $D96 = "", $F96 = "", $G96 = "", $H96 = "", $D96 = "", $J96 = "", $K96 = "", $L96 = "", $M96 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D103:D104 D96:D101">
-    <cfRule type="expression" dxfId="180" priority="1472">
-      <formula>AND($A96="end group", $B96 = "", $C96 = "", #REF! = "", $D96 = "", $F96 = "", $G96 = "", $H96 = "", $D96 = "", $J96 = "", $K96 = "", $L96 = "", $M96 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32 C29">
-    <cfRule type="expression" dxfId="179" priority="1531">
-      <formula>AND($A29="end group", $B29 = "", $C35 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32 C29">
-    <cfRule type="expression" dxfId="178" priority="1533">
-      <formula>AND($A29="end repeat", $B29 = "", $C35 = "", $D29 = "", $E29 = "", $F29 = "", $G29 = "", $H29 = "", $I29 = "", $J29 = "", $K29 = "", $L29 = "", $M29 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="177" priority="1573">
-      <formula>AND($A34="end group", $B25 = "", $C38 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="176" priority="1574">
-      <formula>AND($A34="end repeat", $B25 = "", $C38 = "", $D33 = "", $E33 = "", $F33 = "", $G33 = "", $H33 = "", $I33 = "", $J33 = "", $K33 = "", $L33 = "", $M33 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C34">
-    <cfRule type="expression" dxfId="175" priority="1575">
-      <formula>AND($A44="begin group", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C34">
-    <cfRule type="expression" dxfId="174" priority="1576">
-      <formula>AND(AND(NOT($A44 = "end group"), NOT($A44 = "end repeat"), NOT($A44 = "")), $B34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:C34">
-    <cfRule type="expression" dxfId="173" priority="1577">
-      <formula>AND($A44="begin repeat", NOT($B34 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="172" priority="1580">
-      <formula>AND(#REF!="end group", $B34 = "", $C38 = "", $D34 = "", #REF! = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="171" priority="1581">
-      <formula>AND(#REF!="end repeat", $B34 = "", $C38 = "", $D34 = "", #REF! = "", $F34 = "", $G34 = "", $H34 = "", $I34 = "", $J34 = "", $K34 = "", $L34 = "", $M34 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95:N95 A95:B95 D95 D65 F85:N85 A85:B85 D85">
-    <cfRule type="expression" dxfId="170" priority="1595">
-      <formula>AND($A65="end group", $B65 = "", #REF! = "", $D65 = "", $E65 = "", $F65 = "", $G65 = "", $H65 = "", $I65 = "", $J65 = "", $K65 = "", $L65 = "", $M65 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F94:N94 A94:B94 D94 D64 F84:N84 A84:B84 D84">
-    <cfRule type="expression" dxfId="169" priority="1596">
-      <formula>AND($A64="end group", $B64 = "", $C65 = "", $D64 = "", $E64 = "", $F64 = "", $G64 = "", $H64 = "", $I64 = "", $J64 = "", $K64 = "", $L64 = "", $M64 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F94:N94 A94:B94 D94 F84:N84 A84:B84 D84">
-    <cfRule type="expression" dxfId="168" priority="1599">
-      <formula>AND($A84="end repeat", $B84 = "", $C85 = "", $D84 = "", $E84 = "", $F84 = "", $G84 = "", $H84 = "", $I84 = "", $J84 = "", $K84 = "", $L84 = "", $M84 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F95:N95 A95:B95 D95 F85:N85 A85:B85 D85">
-    <cfRule type="expression" dxfId="167" priority="1600">
-      <formula>AND($A85="end repeat", $B85 = "", #REF! = "", $D85 = "", $E85 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="166" priority="217">
-      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $C23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="expression" dxfId="165" priority="218">
-      <formula>AND(AND(NOT($A23 = "end group"), NOT($A23 = "end repeat"), NOT($A23 = "")), $B23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="164" priority="219" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="163" priority="220">
-      <formula>AND(NOT($G23 = ""), $H23 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="162" priority="1607">
-      <formula>AND($A23="begin group", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="161" priority="1610">
-      <formula>AND($I24 = "", $A23 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="expression" dxfId="160" priority="1612">
-      <formula>AND($A23="begin repeat", NOT($B23 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:H18 J18:N18">
-    <cfRule type="containsText" dxfId="159" priority="209" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:H18 J18:N18">
-    <cfRule type="expression" dxfId="158" priority="210">
-      <formula>AND($A18="begin group", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:H18 J18:N18">
-    <cfRule type="cellIs" dxfId="157" priority="211" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:H18 J18:N18">
-    <cfRule type="expression" dxfId="156" priority="212">
-      <formula>AND($A18="begin repeat", NOT($B18 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="155" priority="204">
-      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $C18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="154" priority="205">
-      <formula>AND(AND(NOT($A18 = "end group"), NOT($A18 = "end repeat"), NOT($A18 = "")), $B18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="153" priority="206" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="152" priority="207">
-      <formula>AND(NOT($G18 = ""), $H18 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:H19 J19:N19">
-    <cfRule type="containsText" dxfId="151" priority="200" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:H19 J19:N19">
-    <cfRule type="expression" dxfId="150" priority="201">
-      <formula>AND($A19="begin group", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:H19 J19:N19">
-    <cfRule type="cellIs" dxfId="149" priority="202" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:H19 J19:N19">
-    <cfRule type="expression" dxfId="148" priority="203">
-      <formula>AND($A19="begin repeat", NOT($B19 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="147" priority="195">
-      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $C19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="146" priority="196">
-      <formula>AND(AND(NOT($A19 = "end group"), NOT($A19 = "end repeat"), NOT($A19 = "")), $B19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="145" priority="197" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="expression" dxfId="144" priority="198">
-      <formula>AND(NOT($G19 = ""), $H19 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:H20 J20:N20">
-    <cfRule type="containsText" dxfId="143" priority="191" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:H20 J20:N20">
-    <cfRule type="expression" dxfId="142" priority="192">
-      <formula>AND($A20="begin group", NOT($B20 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:H20 J20:N20">
-    <cfRule type="cellIs" dxfId="141" priority="193" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:H20 J20:N20">
-    <cfRule type="expression" dxfId="140" priority="194">
-      <formula>AND($A20="begin repeat", NOT($B20 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="139" priority="186">
-      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $C20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="138" priority="187">
-      <formula>AND(AND(NOT($A20 = "end group"), NOT($A20 = "end repeat"), NOT($A20 = "")), $B20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="137" priority="188" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="136" priority="189">
-      <formula>AND(NOT($G20 = ""), $H20 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:H21 J21:N21">
-    <cfRule type="containsText" dxfId="135" priority="182" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:H21 J21:N21">
-    <cfRule type="cellIs" dxfId="134" priority="184" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="133" priority="179" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L53:N53 A53:J53">
-    <cfRule type="containsText" dxfId="132" priority="144" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:J53">
-    <cfRule type="expression" dxfId="131" priority="145">
-      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:N53">
-    <cfRule type="expression" dxfId="130" priority="146">
-      <formula>AND($A53="end group", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:J53">
-    <cfRule type="cellIs" dxfId="129" priority="147" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="128" priority="148">
-      <formula>AND($I53 = "", $A53 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="127" priority="149">
-      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $C53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="expression" dxfId="126" priority="150">
-      <formula>AND(AND(NOT($A53 = "end group"), NOT($A53 = "end repeat"), NOT($A53 = "")), $B53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="cellIs" dxfId="125" priority="151" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="expression" dxfId="124" priority="152">
-      <formula>AND(NOT($G53 = ""), $H53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:J53">
-    <cfRule type="expression" dxfId="123" priority="153">
-      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53:N53">
-    <cfRule type="expression" dxfId="122" priority="154">
-      <formula>AND($A53="end repeat", $B53 = "", $C53 = "", $D53 = "", $E53 = "", $F53 = "", $G53 = "", $H53 = "", $I53 = "", $J53 = "", $K53 = "", $L53 = "", $M53 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
-    <cfRule type="containsText" dxfId="121" priority="155" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53:N53">
-    <cfRule type="expression" dxfId="120" priority="156">
-      <formula>AND($A53="begin group", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53:N53">
-    <cfRule type="cellIs" dxfId="119" priority="157" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53:N53">
-    <cfRule type="expression" dxfId="118" priority="158">
-      <formula>AND($A53="begin repeat", NOT($B53 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L54:N54 A54:J54">
-    <cfRule type="containsText" dxfId="117" priority="128" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:J54">
-    <cfRule type="expression" dxfId="116" priority="129">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:N54">
-    <cfRule type="expression" dxfId="115" priority="130">
-      <formula>AND($A54="end group", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:J54">
-    <cfRule type="cellIs" dxfId="114" priority="131" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I54">
-    <cfRule type="expression" dxfId="113" priority="132">
-      <formula>AND($I54 = "", $A54 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="expression" dxfId="112" priority="133">
-      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $C54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="111" priority="134">
-      <formula>AND(AND(NOT($A54 = "end group"), NOT($A54 = "end repeat"), NOT($A54 = "")), $B54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="110" priority="135" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="expression" dxfId="109" priority="136">
-      <formula>AND(NOT($G54 = ""), $H54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:J54">
-    <cfRule type="expression" dxfId="108" priority="137">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54:N54">
-    <cfRule type="expression" dxfId="107" priority="138">
-      <formula>AND($A54="end repeat", $B54 = "", $C54 = "", $D54 = "", $E54 = "", $F54 = "", $G54 = "", $H54 = "", $I54 = "", $J54 = "", $K54 = "", $L54 = "", $M54 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
-    <cfRule type="containsText" dxfId="106" priority="139" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:N54">
-    <cfRule type="expression" dxfId="105" priority="140">
-      <formula>AND($A54="begin group", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:N54">
-    <cfRule type="cellIs" dxfId="104" priority="141" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54:N54">
-    <cfRule type="expression" dxfId="103" priority="142">
-      <formula>AND($A54="begin repeat", NOT($B54 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L55:N55 A55:J55">
-    <cfRule type="containsText" dxfId="102" priority="112" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:J55">
-    <cfRule type="expression" dxfId="101" priority="113">
-      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:N55">
-    <cfRule type="expression" dxfId="100" priority="114">
-      <formula>AND($A55="end group", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:J55">
-    <cfRule type="cellIs" dxfId="99" priority="115" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I55">
-    <cfRule type="expression" dxfId="98" priority="116">
-      <formula>AND($I55 = "", $A55 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C55">
-    <cfRule type="expression" dxfId="97" priority="117">
-      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $C55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B55">
-    <cfRule type="expression" dxfId="96" priority="118">
-      <formula>AND(AND(NOT($A55 = "end group"), NOT($A55 = "end repeat"), NOT($A55 = "")), $B55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="cellIs" dxfId="95" priority="119" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="expression" dxfId="94" priority="120">
-      <formula>AND(NOT($G55 = ""), $H55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:J55">
-    <cfRule type="expression" dxfId="93" priority="121">
-      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55:N55">
-    <cfRule type="expression" dxfId="92" priority="122">
-      <formula>AND($A55="end repeat", $B55 = "", $C55 = "", $D55 = "", $E55 = "", $F55 = "", $G55 = "", $H55 = "", $I55 = "", $J55 = "", $K55 = "", $L55 = "", $M55 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55">
-    <cfRule type="containsText" dxfId="91" priority="123" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:N55">
-    <cfRule type="expression" dxfId="90" priority="124">
-      <formula>AND($A55="begin group", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:N55">
-    <cfRule type="cellIs" dxfId="89" priority="125" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K55:N55">
-    <cfRule type="expression" dxfId="88" priority="126">
-      <formula>AND($A55="begin repeat", NOT($B55 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I102">
-    <cfRule type="containsText" dxfId="87" priority="98" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I102">
-    <cfRule type="expression" dxfId="86" priority="99">
-      <formula>AND($A102="begin group", NOT($B102 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I102">
-    <cfRule type="cellIs" dxfId="85" priority="100" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I102">
-    <cfRule type="expression" dxfId="84" priority="101">
-      <formula>AND($I102 = "", $A102 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I102">
-    <cfRule type="expression" dxfId="83" priority="102">
-      <formula>AND($A102="begin repeat", NOT($B102 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I102">
-    <cfRule type="expression" dxfId="82" priority="103">
-      <formula>AND($A102="end group", $B102 = "", $C102 = "", #REF! = "", $D102 = "", $F102 = "", $G102 = "", $H102 = "", $I102 = "", $J102 = "", $K102 = "", $L102 = "", $M102 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I102">
-    <cfRule type="expression" dxfId="81" priority="104">
-      <formula>AND($A102="end repeat", $B102 = "", $C102 = "", #REF! = "", $D102 = "", $F102 = "", $G102 = "", $H102 = "", $I102 = "", $J102 = "", $K102 = "", $L102 = "", $M102 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="containsText" dxfId="80" priority="96" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="79" priority="97" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C32">
-    <cfRule type="expression" dxfId="78" priority="1668">
-      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C32">
-    <cfRule type="expression" dxfId="77" priority="1670">
-      <formula>AND($A28="end group", $B28 = "", $C31 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C32">
-    <cfRule type="expression" dxfId="76" priority="1672">
-      <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C31 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C32">
-    <cfRule type="expression" dxfId="75" priority="1674">
-      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C32">
-    <cfRule type="expression" dxfId="74" priority="1676">
-      <formula>AND($A28="end repeat", $B28 = "", $C31 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C32">
-    <cfRule type="expression" dxfId="73" priority="1678">
-      <formula>AND($C31 = "", $A28 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C32">
-    <cfRule type="expression" dxfId="72" priority="1680">
-      <formula>AND($A28="end repeat", $B28 = "", $C31 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $C31 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C32">
-    <cfRule type="expression" dxfId="71" priority="1682">
-      <formula>AND($A28="end group", $B28 = "", $C31 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $C31 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:N30">
-    <cfRule type="containsText" dxfId="70" priority="77" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30 D30:N30">
-    <cfRule type="expression" dxfId="69" priority="78">
-      <formula>AND($A30="begin group", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:N30">
-    <cfRule type="cellIs" dxfId="68" priority="79" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="expression" dxfId="67" priority="80">
-      <formula>AND($I30 = "", $A30 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="66" priority="81">
-      <formula>AND(AND(NOT($A30 = "end group"), NOT($A30 = "end repeat"), NOT($A30 = "")), $B30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="65" priority="82" operator="equal">
-      <formula>"hidden"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="expression" dxfId="64" priority="83">
-      <formula>AND(NOT($G30 = ""), $H30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:B30 D30:N30">
-    <cfRule type="expression" dxfId="63" priority="84">
-      <formula>AND($A30="begin repeat", NOT($B30 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="62" priority="85">
-      <formula>AND($A28="end group", $B28 = "", $C30 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="61" priority="86">
-      <formula>AND(AND(NOT($A28 = "end group"), NOT($A28 = "end repeat"), NOT($A28 = "")), $C30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="60" priority="87">
-      <formula>AND($A28="end repeat", $B28 = "", $C30 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $I28 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="59" priority="88">
-      <formula>AND($C30 = "", $A28 = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="58" priority="89">
-      <formula>AND($A28="end repeat", $B28 = "", $C30 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $C30 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="57" priority="90">
-      <formula>AND($A28="end group", $B28 = "", $C30 = "", $D28 = "", $E28 = "", $F28 = "", $G28 = "", $H28 = "", $C30 = "", $J28 = "", $K28 = "", $L28 = "", $M28 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="56" priority="92">
-      <formula>AND($A30="end group", $B30 = "", $C36 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="55" priority="93">
-      <formula>AND($A30="end repeat", $B30 = "", $C36 = "", $D30 = "", $E30 = "", $F30 = "", $G30 = "", $H30 = "", $I30 = "", $J30 = "", $K30 = "", $L30 = "", $M30 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="54" priority="94">
-      <formula>AND($A28="begin group", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="53" priority="95">
-      <formula>AND($A28="begin repeat", NOT($B28 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="expression" dxfId="52" priority="1838">
+  <conditionalFormatting sqref="E86:E87">
+    <cfRule type="expression" dxfId="31" priority="21">
+      <formula>AND(#REF!="begin group", NOT($B85 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86:E87">
+    <cfRule type="expression" dxfId="30" priority="22">
+      <formula>AND(#REF!="begin repeat", NOT($B85 = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86:E87">
+    <cfRule type="expression" dxfId="29" priority="23">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="expression" dxfId="51" priority="1840">
+  <conditionalFormatting sqref="E86:E87">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84:E85">
-    <cfRule type="expression" dxfId="50" priority="1896">
+  <conditionalFormatting sqref="F85:N85 A85:D85">
+    <cfRule type="expression" dxfId="27" priority="1872">
+      <formula>AND($A85="end repeat", $B85 = "", $C85 = "", $D85 = "", $E86 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:N86 B86:D86">
+    <cfRule type="expression" dxfId="26" priority="1873">
+      <formula>AND($A86="end repeat", $B86 = "", $C86 = "", $D86 = "", #REF! = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85:N85 A85:D85">
+    <cfRule type="expression" dxfId="25" priority="1878">
+      <formula>AND($A85="end group", $B85 = "", $C85 = "", $D85 = "", $E86 = "", $F85 = "", $G85 = "", $H85 = "", $I85 = "", $J85 = "", $K85 = "", $L85 = "", $M85 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:N86 B86:D86">
+    <cfRule type="expression" dxfId="24" priority="1879">
+      <formula>AND($A86="end group", $B86 = "", $C86 = "", $D86 = "", #REF! = "", $F86 = "", $G86 = "", $H86 = "", $I86 = "", $J86 = "", $K86 = "", $L86 = "", $M86 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="expression" dxfId="23" priority="1903">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84:E85">
-    <cfRule type="expression" dxfId="49" priority="1897">
+  <conditionalFormatting sqref="E91">
+    <cfRule type="expression" dxfId="22" priority="1904">
       <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="containsText" dxfId="48" priority="64" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="47" priority="65" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="46" priority="68">
+  <conditionalFormatting sqref="I39 B31:B48 B52 B55:B102">
+    <cfRule type="expression" dxfId="21" priority="1918">
+      <formula>COUNTIF($B$2:$B$998,B31)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G87:N87">
+    <cfRule type="expression" dxfId="20" priority="1941">
+      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I87">
+    <cfRule type="expression" dxfId="19" priority="1946">
+      <formula>AND($I87 = "", #REF! = "calculate")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G87:N87">
+    <cfRule type="expression" dxfId="18" priority="1956">
       <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="45" priority="69">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90:E91">
-    <cfRule type="containsText" dxfId="44" priority="58" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90:E91">
-    <cfRule type="cellIs" dxfId="43" priority="59" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90:E91">
-    <cfRule type="expression" dxfId="42" priority="60">
-      <formula>AND(#REF!="begin group", NOT($B89 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90:E91">
-    <cfRule type="expression" dxfId="41" priority="61">
-      <formula>AND(#REF!="begin repeat", NOT($B89 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90:E91">
-    <cfRule type="expression" dxfId="40" priority="62">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90:E91">
-    <cfRule type="expression" dxfId="39" priority="63">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89:N89 A89:D89">
-    <cfRule type="expression" dxfId="38" priority="1911">
-      <formula>AND($A89="end repeat", $B89 = "", $C89 = "", $D89 = "", $E90 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90:N90 B90:D90">
-    <cfRule type="expression" dxfId="37" priority="1912">
-      <formula>AND($A90="end repeat", $B90 = "", $C90 = "", $D90 = "", #REF! = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89:N89 A89:D89">
-    <cfRule type="expression" dxfId="36" priority="1917">
-      <formula>AND($A89="end group", $B89 = "", $C89 = "", $D89 = "", $E90 = "", $F89 = "", $G89 = "", $H89 = "", $I89 = "", $J89 = "", $K89 = "", $L89 = "", $M89 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90:N90 B90:D90">
-    <cfRule type="expression" dxfId="35" priority="1918">
-      <formula>AND($A90="end group", $B90 = "", $C90 = "", $D90 = "", #REF! = "", $F90 = "", $G90 = "", $H90 = "", $I90 = "", $J90 = "", $K90 = "", $L90 = "", $M90 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="34" priority="1942">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="33" priority="1943">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43 B35:B52 B56 B59:B106">
-    <cfRule type="expression" dxfId="32" priority="1957">
-      <formula>COUNTIF($B$2:$B$1002,B35)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G91:N91">
-    <cfRule type="expression" dxfId="31" priority="1980">
-      <formula>AND(#REF!="begin group", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I91">
-    <cfRule type="expression" dxfId="30" priority="1985">
-      <formula>AND($I91 = "", #REF! = "calculate")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G91:N91">
-    <cfRule type="expression" dxfId="29" priority="1995">
-      <formula>AND(#REF!="begin repeat", NOT(#REF! = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G91:N91">
-    <cfRule type="expression" dxfId="28" priority="2012">
-      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G91:N91">
-    <cfRule type="expression" dxfId="27" priority="2015">
-      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G91 = "", $H91 = "", $I91 = "", $J91 = "", $K91 = "", $L91 = "", $M91 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B58 B22">
-    <cfRule type="expression" dxfId="26" priority="2111">
-      <formula>COUNTIF($B$2:$B$973,B22)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91 B91:D91">
-    <cfRule type="expression" dxfId="25" priority="2115">
-      <formula>AND($A91="end repeat", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91 B91:D91">
-    <cfRule type="expression" dxfId="24" priority="2117">
-      <formula>AND($A91="end group", $B91 = "", $C91 = "", $D91 = "", $E91 = "", $F91 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53:B55">
-    <cfRule type="expression" dxfId="23" priority="2130">
-      <formula>COUNTIF($B$2:$B$968,B53)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="expression" dxfId="22" priority="2133">
-      <formula>COUNTIF($B$2:$B$960,B30)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="21" priority="32">
-      <formula>AND($A17="end group", $B17 = "", $C17 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="20" priority="35">
-      <formula>AND($A17="end repeat", $B17 = "", $C17 = "", $D17 = "", $E17 = "", $F17 = "", $G17 = "", $H17 = "", $I17 = "", $J17 = "", $K17 = "", $L17 = "", $M17 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="19" priority="36">
-      <formula>AND($A16="end group", $B16 = "", $C16 = "", $D16 = "", $E16 = "", $F16 = "", $G16 = "", $H16 = "", $I16 = "", $J16 = "", $K15 = "", $L16 = "", $M16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="18" priority="37">
-      <formula>AND($A15="end group", $B15 = "", $C15 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $I15 = "", $J15 = "", #REF! = "", $L15 = "", $M15 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="17" priority="38">
-      <formula>AND($A16="end repeat", $B16 = "", $C16 = "", $D16 = "", $E16 = "", $F16 = "", $G16 = "", $H16 = "", $I16 = "", $J16 = "", $K15 = "", $L16 = "", $M16 = "")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="16" priority="39">
-      <formula>AND($A15="end repeat", $B15 = "", $C15 = "", $D15 = "", $E15 = "", $F15 = "", $G15 = "", $H15 = "", $I15 = "", $J15 = "", #REF! = "", $L15 = "", $M15 = "")</formula>
+  <conditionalFormatting sqref="G87:N87">
+    <cfRule type="expression" dxfId="17" priority="1973">
+      <formula>AND(#REF!="end repeat", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G87:N87">
+    <cfRule type="expression" dxfId="16" priority="1976">
+      <formula>AND(#REF!="end group", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", $G87 = "", $H87 = "", $I87 = "", $J87 = "", $K87 = "", $L87 = "", $M87 = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:B54 B18">
+    <cfRule type="expression" dxfId="15" priority="2072">
+      <formula>COUNTIF($B$2:$B$969,B18)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87 B87:D87">
+    <cfRule type="expression" dxfId="14" priority="2076">
+      <formula>AND($A87="end repeat", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87 B87:D87">
+    <cfRule type="expression" dxfId="13" priority="2078">
+      <formula>AND($A87="end group", $B87 = "", $C87 = "", $D87 = "", $E87 = "", $F87 = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "", #REF! = "")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:B51">
+    <cfRule type="expression" dxfId="12" priority="2091">
+      <formula>COUNTIF($B$2:$B$964,B49)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="15" priority="2216">
-      <formula>AND(A1 = "type", COUNTIF($A$1:$A$964, "begin group") = COUNTIF($A$1:$A$964, "end group"))</formula>
+    <cfRule type="expression" dxfId="11" priority="2092">
+      <formula>AND(A1 = "type", COUNTIF($A$1:$A$960, "begin group") = COUNTIF($A$1:$A$960, "end group"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="14" priority="2217">
-      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$955, "begin group") = COUNTIF($A$1:$A$964, "end group")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B17">
-    <cfRule type="expression" dxfId="13" priority="2218">
-      <formula>COUNTIF($B$2:$B$987,B14)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10:L13">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="calculate"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10:L13">
-    <cfRule type="expression" dxfId="11" priority="2">
-      <formula>AND($A10="begin group", NOT($B10 = ""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10:L13">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
-      <formula>"note"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10:L13">
-    <cfRule type="expression" dxfId="9" priority="4">
-      <formula>AND($A10="begin repeat", NOT($B10 = ""))</formula>
+    <cfRule type="expression" dxfId="10" priority="2093">
+      <formula>OR(NOT(A1 = "type"), NOT(COUNTIF($A$1:$A$951, "begin group") = COUNTIF($A$1:$A$960, "end group")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="9" priority="2094">
+      <formula>COUNTIF($B$2:$B$956,B26)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="D2:D112" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D87 D88:D108" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -27915,9 +27642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -27961,14 +27688,14 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C2" s="24">
         <f ca="1">NOW()</f>
-        <v>45002.520239004632</v>
+        <v>45002.523770023145</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>215</v>
